--- a/data/trans_orig/P05A05-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P05A05-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D9A56E1-6C66-4560-BE10-980BA52F0DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA1C3191-5FA2-421F-B86E-DBE84BF25E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A8490A20-0E31-446F-AA5C-F82A6AF0B452}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{892E1C65-56F6-4934-92C4-60E6A0963C19}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="713">
   <si>
     <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2007 (Tasa respuesta: 99,71%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>34,91%</t>
   </si>
   <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
   </si>
   <si>
     <t>31,01%</t>
   </si>
   <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
   </si>
   <si>
     <t>33,01%</t>
   </si>
   <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
   </si>
   <si>
     <t>Algo</t>
@@ -107,19 +107,19 @@
     <t>45,0%</t>
   </si>
   <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
   </si>
   <si>
     <t>47,83%</t>
   </si>
   <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
   </si>
   <si>
     <t>46,38%</t>
@@ -128,7 +128,7 @@
     <t>43,17%</t>
   </si>
   <si>
-    <t>49,69%</t>
+    <t>49,45%</t>
   </si>
   <si>
     <t>Mucho</t>
@@ -140,25 +140,25 @@
     <t>16,58%</t>
   </si>
   <si>
-    <t>23,77%</t>
+    <t>24,01%</t>
   </si>
   <si>
     <t>21,16%</t>
   </si>
   <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
   </si>
   <si>
     <t>20,61%</t>
   </si>
   <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
   </si>
   <si>
     <t>100%</t>
@@ -170,1807 +170,1858 @@
     <t>34,99%</t>
   </si>
   <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
   </si>
   <si>
     <t>28,1%</t>
   </si>
   <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2012 (Tasa respuesta: 99,48%)</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2016 (Tasa respuesta: 99,6%)</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
     <t>24,76%</t>
   </si>
   <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
   </si>
   <si>
     <t>30,64%</t>
   </si>
   <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
   </si>
   <si>
     <t>37,8%</t>
   </si>
   <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2023 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
   </si>
   <si>
     <t>14,41%</t>
   </si>
   <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2012 (Tasa respuesta: 99,48%)</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2015 (Tasa respuesta: 99,6%)</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2023 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
   </si>
   <si>
     <t>80,06%</t>
@@ -2000,52 +2051,43 @@
     <t>80,19%</t>
   </si>
   <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
   </si>
   <si>
     <t>79,42%</t>
@@ -2069,43 +2111,49 @@
     <t>79,05%</t>
   </si>
   <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
   </si>
   <si>
     <t>77,2%</t>
@@ -2130,51 +2178,6 @@
   </si>
   <si>
     <t>78,21%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
   </si>
 </sst>
 </file>
@@ -2586,7 +2589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{292F3B54-0582-4788-B3B7-72A6441EFF00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F28B83F-CE54-4063-9547-91B84DB17C74}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3000,10 +3003,10 @@
         <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3018,13 +3021,13 @@
         <v>123303</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>111</v>
@@ -3033,13 +3036,13 @@
         <v>119085</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>227</v>
@@ -3048,13 +3051,13 @@
         <v>242388</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3110,7 +3113,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3122,13 +3125,13 @@
         <v>191864</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>222</v>
@@ -3137,13 +3140,13 @@
         <v>237830</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>405</v>
@@ -3152,13 +3155,13 @@
         <v>429694</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3173,13 +3176,13 @@
         <v>318898</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>304</v>
@@ -3188,13 +3191,13 @@
         <v>316188</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>617</v>
@@ -3203,13 +3206,13 @@
         <v>635086</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3224,13 +3227,13 @@
         <v>127906</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>132</v>
@@ -3239,13 +3242,13 @@
         <v>135726</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>249</v>
@@ -3254,13 +3257,13 @@
         <v>263632</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3316,7 +3319,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3328,13 +3331,13 @@
         <v>172348</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>136</v>
@@ -3343,13 +3346,13 @@
         <v>140404</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>293</v>
@@ -3358,13 +3361,13 @@
         <v>312752</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3379,13 +3382,13 @@
         <v>242347</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>265</v>
@@ -3394,13 +3397,13 @@
         <v>272112</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>493</v>
@@ -3409,7 +3412,7 @@
         <v>514459</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>113</v>
@@ -3436,7 +3439,7 @@
         <v>116</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>99</v>
@@ -3445,13 +3448,13 @@
         <v>101070</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M18" s="7">
         <v>197</v>
@@ -3460,13 +3463,13 @@
         <v>204472</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,7 +3525,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3534,13 +3537,13 @@
         <v>124094</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H20" s="7">
         <v>130</v>
@@ -3549,13 +3552,13 @@
         <v>133588</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M20" s="7">
         <v>257</v>
@@ -3564,13 +3567,13 @@
         <v>257682</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3585,13 +3588,13 @@
         <v>197752</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H21" s="7">
         <v>193</v>
@@ -3600,13 +3603,13 @@
         <v>195930</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M21" s="7">
         <v>392</v>
@@ -3615,13 +3618,13 @@
         <v>393682</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3636,13 +3639,13 @@
         <v>62444</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H22" s="7">
         <v>71</v>
@@ -3651,13 +3654,13 @@
         <v>72466</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M22" s="7">
         <v>135</v>
@@ -3666,13 +3669,13 @@
         <v>134911</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,7 +3731,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3740,13 +3743,13 @@
         <v>156323</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>152</v>
+        <v>42</v>
       </c>
       <c r="H24" s="7">
         <v>214</v>
@@ -3755,13 +3758,13 @@
         <v>218542</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M24" s="7">
         <v>379</v>
@@ -3773,10 +3776,10 @@
         <v>48</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3791,13 +3794,13 @@
         <v>267771</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H25" s="7">
         <v>331</v>
@@ -3806,13 +3809,13 @@
         <v>337586</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M25" s="7">
         <v>605</v>
@@ -3821,13 +3824,13 @@
         <v>605357</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3842,13 +3845,13 @@
         <v>77504</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H26" s="7">
         <v>115</v>
@@ -3857,13 +3860,13 @@
         <v>119850</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M26" s="7">
         <v>198</v>
@@ -3872,13 +3875,13 @@
         <v>197354</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3946,13 +3949,13 @@
         <v>1072285</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H28" s="7">
         <v>1021</v>
@@ -3961,13 +3964,13 @@
         <v>1049737</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M28" s="7">
         <v>2066</v>
@@ -3976,13 +3979,13 @@
         <v>2122023</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3997,13 +4000,13 @@
         <v>1600498</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H29" s="7">
         <v>1637</v>
@@ -4012,13 +4015,13 @@
         <v>1672814</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M29" s="7">
         <v>3220</v>
@@ -4027,13 +4030,13 @@
         <v>3273311</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4048,13 +4051,13 @@
         <v>593263</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H30" s="7">
         <v>630</v>
@@ -4063,13 +4066,13 @@
         <v>646895</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M30" s="7">
         <v>1206</v>
@@ -4078,13 +4081,13 @@
         <v>1240158</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>200</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4140,7 +4143,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -4162,7 +4165,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC5EFCD-C041-4075-A620-87992D29FD7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019BFCE1-9E2D-4B53-92CA-1BF40C6F25CC}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4179,7 +4182,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4286,13 +4289,13 @@
         <v>153264</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H4" s="7">
         <v>147</v>
@@ -4301,13 +4304,13 @@
         <v>150487</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>103</v>
+        <v>209</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M4" s="7">
         <v>297</v>
@@ -4316,13 +4319,13 @@
         <v>303751</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4337,13 +4340,13 @@
         <v>196344</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>44</v>
+        <v>215</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="H5" s="7">
         <v>171</v>
@@ -4352,13 +4355,13 @@
         <v>175667</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="M5" s="7">
         <v>364</v>
@@ -4367,13 +4370,13 @@
         <v>372010</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4388,13 +4391,13 @@
         <v>103586</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H6" s="7">
         <v>102</v>
@@ -4403,13 +4406,13 @@
         <v>103063</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>221</v>
+        <v>33</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>222</v>
+        <v>88</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M6" s="7">
         <v>204</v>
@@ -4418,13 +4421,13 @@
         <v>206649</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4492,13 +4495,13 @@
         <v>240728</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H8" s="7">
         <v>204</v>
@@ -4507,13 +4510,13 @@
         <v>221458</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M8" s="7">
         <v>434</v>
@@ -4522,13 +4525,13 @@
         <v>462186</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4543,13 +4546,13 @@
         <v>269126</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H9" s="7">
         <v>248</v>
@@ -4558,13 +4561,13 @@
         <v>264997</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>241</v>
+        <v>187</v>
       </c>
       <c r="M9" s="7">
         <v>519</v>
@@ -4573,13 +4576,13 @@
         <v>534123</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>243</v>
+        <v>44</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4594,13 +4597,13 @@
         <v>173561</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H10" s="7">
         <v>119</v>
@@ -4609,13 +4612,13 @@
         <v>123800</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M10" s="7">
         <v>282</v>
@@ -4624,13 +4627,13 @@
         <v>297361</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4686,7 +4689,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4698,13 +4701,13 @@
         <v>212774</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>256</v>
+        <v>42</v>
       </c>
       <c r="H12" s="7">
         <v>223</v>
@@ -4719,7 +4722,7 @@
         <v>258</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>259</v>
+        <v>213</v>
       </c>
       <c r="M12" s="7">
         <v>424</v>
@@ -4728,13 +4731,13 @@
         <v>453618</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4749,13 +4752,13 @@
         <v>302853</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>264</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H13" s="7">
         <v>272</v>
@@ -4764,13 +4767,13 @@
         <v>288412</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="M13" s="7">
         <v>561</v>
@@ -4779,13 +4782,13 @@
         <v>591265</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4800,13 +4803,13 @@
         <v>165509</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H14" s="7">
         <v>168</v>
@@ -4815,13 +4818,13 @@
         <v>176838</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M14" s="7">
         <v>328</v>
@@ -4830,13 +4833,13 @@
         <v>342347</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4892,7 +4895,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4904,13 +4907,13 @@
         <v>192143</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H16" s="7">
         <v>179</v>
@@ -4919,13 +4922,13 @@
         <v>205203</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M16" s="7">
         <v>348</v>
@@ -4934,13 +4937,13 @@
         <v>397346</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4955,13 +4958,13 @@
         <v>268299</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="H17" s="7">
         <v>206</v>
@@ -4970,13 +4973,13 @@
         <v>236169</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="M17" s="7">
         <v>442</v>
@@ -4985,13 +4988,13 @@
         <v>504468</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5006,13 +5009,13 @@
         <v>153151</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="H18" s="7">
         <v>150</v>
@@ -5021,13 +5024,13 @@
         <v>170483</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>302</v>
+        <v>33</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="M18" s="7">
         <v>292</v>
@@ -5036,13 +5039,13 @@
         <v>323634</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5098,7 +5101,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5110,13 +5113,13 @@
         <v>129604</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>42</v>
+        <v>306</v>
       </c>
       <c r="H20" s="7">
         <v>125</v>
@@ -5125,13 +5128,13 @@
         <v>137145</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>309</v>
+        <v>12</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="M20" s="7">
         <v>242</v>
@@ -5140,13 +5143,13 @@
         <v>266750</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5161,13 +5164,13 @@
         <v>178787</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="H21" s="7">
         <v>179</v>
@@ -5176,13 +5179,13 @@
         <v>199062</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>317</v>
+        <v>266</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="M21" s="7">
         <v>341</v>
@@ -5191,13 +5194,13 @@
         <v>377849</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5212,13 +5215,13 @@
         <v>118909</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>325</v>
+        <v>234</v>
       </c>
       <c r="H22" s="7">
         <v>97</v>
@@ -5227,13 +5230,13 @@
         <v>106395</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="M22" s="7">
         <v>209</v>
@@ -5242,13 +5245,13 @@
         <v>225304</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5304,7 +5307,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5316,13 +5319,13 @@
         <v>172462</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H24" s="7">
         <v>195</v>
@@ -5331,13 +5334,13 @@
         <v>211067</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>274</v>
+        <v>332</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="M24" s="7">
         <v>351</v>
@@ -5346,13 +5349,13 @@
         <v>383529</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>260</v>
+        <v>336</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5367,13 +5370,13 @@
         <v>237654</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="H25" s="7">
         <v>331</v>
@@ -5382,13 +5385,13 @@
         <v>352315</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>342</v>
+        <v>289</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M25" s="7">
         <v>543</v>
@@ -5397,13 +5400,13 @@
         <v>589969</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5418,13 +5421,13 @@
         <v>140960</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H26" s="7">
         <v>163</v>
@@ -5433,13 +5436,13 @@
         <v>174410</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M26" s="7">
         <v>292</v>
@@ -5448,13 +5451,13 @@
         <v>315370</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>302</v>
+        <v>351</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>146</v>
+        <v>352</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5496,7 +5499,7 @@
         <v>1186</v>
       </c>
       <c r="N27" s="7">
-        <v>1288867</v>
+        <v>1288868</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -5522,13 +5525,13 @@
         <v>1100975</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H28" s="7">
         <v>1073</v>
@@ -5537,13 +5540,13 @@
         <v>1166206</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>358</v>
+        <v>278</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="M28" s="7">
         <v>2096</v>
@@ -5552,13 +5555,13 @@
         <v>2267181</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5573,13 +5576,13 @@
         <v>1453063</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H29" s="7">
         <v>1407</v>
@@ -5588,13 +5591,13 @@
         <v>1516622</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>363</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="M29" s="7">
         <v>2770</v>
@@ -5603,13 +5606,13 @@
         <v>2969685</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5624,13 +5627,13 @@
         <v>855676</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="H30" s="7">
         <v>799</v>
@@ -5639,13 +5642,13 @@
         <v>854989</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="M30" s="7">
         <v>1607</v>
@@ -5654,13 +5657,13 @@
         <v>1710665</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5716,7 +5719,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -5738,7 +5741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C68F5E4-59F5-4D48-8205-EBF7F4C2A126}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE84D85-0F2C-4AAE-81C2-C6A1A91BADC9}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5755,7 +5758,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5862,13 +5865,13 @@
         <v>156798</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="H4" s="7">
         <v>163</v>
@@ -5877,13 +5880,13 @@
         <v>163354</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>385</v>
       </c>
       <c r="M4" s="7">
         <v>308</v>
@@ -5892,13 +5895,13 @@
         <v>320152</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5913,13 +5916,13 @@
         <v>162480</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>391</v>
       </c>
       <c r="H5" s="7">
         <v>158</v>
@@ -5928,13 +5931,13 @@
         <v>151726</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="M5" s="7">
         <v>311</v>
@@ -5943,13 +5946,13 @@
         <v>314206</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5964,13 +5967,13 @@
         <v>98874</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="H6" s="7">
         <v>80</v>
@@ -5979,13 +5982,13 @@
         <v>77699</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="M6" s="7">
         <v>174</v>
@@ -5994,13 +5997,13 @@
         <v>176573</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6068,13 +6071,13 @@
         <v>220879</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>409</v>
       </c>
       <c r="H8" s="7">
         <v>221</v>
@@ -6083,13 +6086,13 @@
         <v>214735</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M8" s="7">
         <v>434</v>
@@ -6098,13 +6101,13 @@
         <v>435615</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6119,13 +6122,13 @@
         <v>246278</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="H9" s="7">
         <v>233</v>
@@ -6134,13 +6137,13 @@
         <v>226851</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="M9" s="7">
         <v>467</v>
@@ -6149,13 +6152,13 @@
         <v>473129</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6170,13 +6173,13 @@
         <v>123338</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>425</v>
       </c>
       <c r="H10" s="7">
         <v>124</v>
@@ -6185,13 +6188,13 @@
         <v>120952</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>428</v>
       </c>
       <c r="M10" s="7">
         <v>244</v>
@@ -6200,10 +6203,10 @@
         <v>244291</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>430</v>
@@ -6262,7 +6265,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6295,7 +6298,7 @@
         <v>435</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>436</v>
+        <v>235</v>
       </c>
       <c r="M12" s="7">
         <v>491</v>
@@ -6304,13 +6307,13 @@
         <v>499102</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>438</v>
+        <v>286</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>439</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6325,13 +6328,13 @@
         <v>265446</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H13" s="7">
         <v>254</v>
@@ -6340,13 +6343,13 @@
         <v>251364</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>444</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="M13" s="7">
         <v>505</v>
@@ -6355,13 +6358,13 @@
         <v>516809</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>229</v>
+        <v>442</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6376,13 +6379,13 @@
         <v>147627</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H14" s="7">
         <v>162</v>
@@ -6391,13 +6394,13 @@
         <v>163022</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="M14" s="7">
         <v>303</v>
@@ -6406,13 +6409,13 @@
         <v>310649</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>452</v>
+        <v>34</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6468,7 +6471,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6480,13 +6483,13 @@
         <v>222602</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>340</v>
+        <v>451</v>
       </c>
       <c r="H16" s="7">
         <v>248</v>
@@ -6495,13 +6498,13 @@
         <v>263726</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="M16" s="7">
         <v>451</v>
@@ -6510,13 +6513,13 @@
         <v>486328</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>459</v>
+        <v>213</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6531,13 +6534,13 @@
         <v>244264</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="H17" s="7">
         <v>212</v>
@@ -6546,13 +6549,13 @@
         <v>228952</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>43</v>
+        <v>460</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>389</v>
+        <v>461</v>
       </c>
       <c r="M17" s="7">
         <v>430</v>
@@ -6561,13 +6564,13 @@
         <v>473216</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>466</v>
+        <v>257</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6582,13 +6585,13 @@
         <v>173717</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="H18" s="7">
         <v>141</v>
@@ -6597,13 +6600,13 @@
         <v>155357</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="M18" s="7">
         <v>297</v>
@@ -6612,13 +6615,13 @@
         <v>329075</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6674,7 +6677,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6686,13 +6689,13 @@
         <v>179567</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>477</v>
+        <v>415</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>126</v>
+        <v>473</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="H20" s="7">
         <v>167</v>
@@ -6701,13 +6704,13 @@
         <v>190466</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="M20" s="7">
         <v>324</v>
@@ -6716,13 +6719,13 @@
         <v>370032</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>421</v>
+        <v>478</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>481</v>
+        <v>73</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6737,13 +6740,13 @@
         <v>192564</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>484</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="H21" s="7">
         <v>177</v>
@@ -6752,13 +6755,13 @@
         <v>204749</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>487</v>
+        <v>233</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="M21" s="7">
         <v>349</v>
@@ -6767,13 +6770,13 @@
         <v>397313</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6788,13 +6791,13 @@
         <v>104787</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="H22" s="7">
         <v>88</v>
@@ -6803,13 +6806,13 @@
         <v>100519</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="M22" s="7">
         <v>182</v>
@@ -6818,13 +6821,13 @@
         <v>205306</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6880,7 +6883,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6892,13 +6895,13 @@
         <v>232196</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>413</v>
+        <v>495</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>500</v>
+        <v>317</v>
       </c>
       <c r="H24" s="7">
         <v>277</v>
@@ -6907,13 +6910,13 @@
         <v>330628</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>502</v>
+        <v>221</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="M24" s="7">
         <v>526</v>
@@ -6922,13 +6925,13 @@
         <v>562823</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>243</v>
+        <v>499</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6943,13 +6946,13 @@
         <v>225265</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="H25" s="7">
         <v>245</v>
@@ -6958,13 +6961,13 @@
         <v>290112</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>257</v>
+        <v>505</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="M25" s="7">
         <v>486</v>
@@ -6973,13 +6976,13 @@
         <v>515377</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>22</v>
+        <v>509</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6994,13 +6997,13 @@
         <v>132121</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="H26" s="7">
         <v>126</v>
@@ -7009,13 +7012,13 @@
         <v>149306</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="M26" s="7">
         <v>261</v>
@@ -7024,13 +7027,13 @@
         <v>281427</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7098,13 +7101,13 @@
         <v>1265044</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="H28" s="7">
         <v>1324</v>
@@ -7113,13 +7116,13 @@
         <v>1409008</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="M28" s="7">
         <v>2534</v>
@@ -7128,13 +7131,13 @@
         <v>2674052</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7149,13 +7152,13 @@
         <v>1336296</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>467</v>
+        <v>527</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H29" s="7">
         <v>1279</v>
@@ -7164,13 +7167,13 @@
         <v>1353753</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>533</v>
+        <v>462</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="M29" s="7">
         <v>2548</v>
@@ -7179,13 +7182,13 @@
         <v>2690049</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>99</v>
+        <v>533</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7200,13 +7203,13 @@
         <v>780465</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>349</v>
+        <v>536</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>302</v>
+        <v>46</v>
       </c>
       <c r="H30" s="7">
         <v>721</v>
@@ -7215,10 +7218,10 @@
         <v>766855</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>538</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>539</v>
@@ -7236,7 +7239,7 @@
         <v>541</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>224</v>
+        <v>369</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7292,7 +7295,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -7314,7 +7317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC21CFD-B5BA-43EC-BFD3-3732D4A41CBE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CF6720-C6E3-4E73-830F-142BE27211D9}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7432,10 +7435,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="D4" s="7">
-        <v>317365</v>
+        <v>24833</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>543</v>
@@ -7447,10 +7450,10 @@
         <v>545</v>
       </c>
       <c r="H4" s="7">
-        <v>161</v>
+        <v>17</v>
       </c>
       <c r="I4" s="7">
-        <v>273792</v>
+        <v>31969</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>546</v>
@@ -7462,10 +7465,10 @@
         <v>548</v>
       </c>
       <c r="M4" s="7">
-        <v>305</v>
+        <v>29</v>
       </c>
       <c r="N4" s="7">
-        <v>591157</v>
+        <v>56801</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>549</v>
@@ -7510,7 +7513,7 @@
         <v>556</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="M5" s="7">
         <v>45</v>
@@ -7534,10 +7537,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="D6" s="7">
-        <v>24833</v>
+        <v>317365</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>560</v>
@@ -7549,10 +7552,10 @@
         <v>562</v>
       </c>
       <c r="H6" s="7">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="I6" s="7">
-        <v>31969</v>
+        <v>273792</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>563</v>
@@ -7564,10 +7567,10 @@
         <v>565</v>
       </c>
       <c r="M6" s="7">
-        <v>29</v>
+        <v>305</v>
       </c>
       <c r="N6" s="7">
-        <v>56801</v>
+        <v>591157</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>566</v>
@@ -7638,10 +7641,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>247</v>
+        <v>19</v>
       </c>
       <c r="D8" s="7">
-        <v>337901</v>
+        <v>32231</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>569</v>
@@ -7653,10 +7656,10 @@
         <v>571</v>
       </c>
       <c r="H8" s="7">
-        <v>363</v>
+        <v>43</v>
       </c>
       <c r="I8" s="7">
-        <v>381746</v>
+        <v>49355</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>572</v>
@@ -7668,10 +7671,10 @@
         <v>574</v>
       </c>
       <c r="M8" s="7">
-        <v>610</v>
+        <v>62</v>
       </c>
       <c r="N8" s="7">
-        <v>719647</v>
+        <v>81586</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>575</v>
@@ -7716,7 +7719,7 @@
         <v>582</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>583</v>
+        <v>321</v>
       </c>
       <c r="M9" s="7">
         <v>90</v>
@@ -7725,13 +7728,13 @@
         <v>126219</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>585</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7740,49 +7743,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="D10" s="7">
-        <v>32231</v>
+        <v>337901</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>588</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>363</v>
+      </c>
+      <c r="I10" s="7">
+        <v>381746</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>589</v>
       </c>
-      <c r="H10" s="7">
-        <v>43</v>
-      </c>
-      <c r="I10" s="7">
-        <v>49355</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>610</v>
+      </c>
+      <c r="N10" s="7">
+        <v>719647</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="M10" s="7">
-        <v>62</v>
-      </c>
-      <c r="N10" s="7">
-        <v>81586</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>593</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>594</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7838,55 +7841,55 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>419</v>
+        <v>55</v>
       </c>
       <c r="D12" s="7">
-        <v>422828</v>
+        <v>60716</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>597</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>71</v>
+      </c>
+      <c r="I12" s="7">
+        <v>52873</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>598</v>
       </c>
-      <c r="H12" s="7">
-        <v>648</v>
-      </c>
-      <c r="I12" s="7">
-        <v>461137</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>600</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>126</v>
+      </c>
+      <c r="N12" s="7">
+        <v>113589</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="M12" s="7">
-        <v>1067</v>
-      </c>
-      <c r="N12" s="7">
-        <v>883966</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="P12" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>602</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7901,13 +7904,13 @@
         <v>72338</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>605</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>607</v>
       </c>
       <c r="H13" s="7">
         <v>126</v>
@@ -7916,13 +7919,13 @@
         <v>94196</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>608</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>609</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>610</v>
       </c>
       <c r="M13" s="7">
         <v>195</v>
@@ -7931,13 +7934,13 @@
         <v>166535</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7946,49 +7949,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>55</v>
+        <v>419</v>
       </c>
       <c r="D14" s="7">
-        <v>60716</v>
+        <v>422828</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>648</v>
+      </c>
+      <c r="I14" s="7">
+        <v>461137</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="H14" s="7">
-        <v>71</v>
-      </c>
-      <c r="I14" s="7">
-        <v>52873</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>616</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>1067</v>
+      </c>
+      <c r="N14" s="7">
+        <v>883966</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>617</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="M14" s="7">
-        <v>126</v>
-      </c>
-      <c r="N14" s="7">
-        <v>113589</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>619</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>614</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8044,34 +8047,34 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>507</v>
+        <v>57</v>
       </c>
       <c r="D16" s="7">
-        <v>556378</v>
+        <v>59797</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>622</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>116</v>
+      </c>
+      <c r="I16" s="7">
+        <v>80516</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>623</v>
-      </c>
-      <c r="H16" s="7">
-        <v>879</v>
-      </c>
-      <c r="I16" s="7">
-        <v>573546</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>621</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>624</v>
@@ -8080,19 +8083,19 @@
         <v>625</v>
       </c>
       <c r="M16" s="7">
-        <v>1386</v>
+        <v>173</v>
       </c>
       <c r="N16" s="7">
-        <v>1129924</v>
+        <v>140312</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8107,13 +8110,13 @@
         <v>107815</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H17" s="7">
         <v>144</v>
@@ -8122,13 +8125,13 @@
         <v>92271</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>148</v>
+        <v>634</v>
       </c>
       <c r="M17" s="7">
         <v>245</v>
@@ -8137,13 +8140,13 @@
         <v>200086</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8152,43 +8155,43 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>57</v>
+        <v>507</v>
       </c>
       <c r="D18" s="7">
-        <v>59797</v>
+        <v>556378</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="H18" s="7">
+        <v>879</v>
+      </c>
+      <c r="I18" s="7">
+        <v>573546</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>637</v>
       </c>
-      <c r="H18" s="7">
-        <v>116</v>
-      </c>
-      <c r="I18" s="7">
-        <v>80516</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>638</v>
-      </c>
       <c r="K18" s="7" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="M18" s="7">
-        <v>173</v>
+        <v>1386</v>
       </c>
       <c r="N18" s="7">
-        <v>140312</v>
+        <v>1129924</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>642</v>
@@ -8250,16 +8253,16 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>529</v>
+        <v>52</v>
       </c>
       <c r="D20" s="7">
-        <v>480506</v>
+        <v>46803</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>644</v>
@@ -8271,10 +8274,10 @@
         <v>646</v>
       </c>
       <c r="H20" s="7">
-        <v>774</v>
+        <v>88</v>
       </c>
       <c r="I20" s="7">
-        <v>455391</v>
+        <v>55045</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>647</v>
@@ -8283,22 +8286,22 @@
         <v>648</v>
       </c>
       <c r="L20" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="M20" s="7">
+        <v>140</v>
+      </c>
+      <c r="N20" s="7">
+        <v>101849</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>649</v>
       </c>
-      <c r="M20" s="7">
-        <v>1303</v>
-      </c>
-      <c r="N20" s="7">
-        <v>935897</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>650</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>651</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8313,13 +8316,13 @@
         <v>72847</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>653</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>654</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>655</v>
       </c>
       <c r="H21" s="7">
         <v>139</v>
@@ -8328,7 +8331,7 @@
         <v>85965</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>145</v>
+        <v>655</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>656</v>
@@ -8358,10 +8361,10 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>52</v>
+        <v>529</v>
       </c>
       <c r="D22" s="7">
-        <v>46803</v>
+        <v>480506</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>661</v>
@@ -8373,10 +8376,10 @@
         <v>663</v>
       </c>
       <c r="H22" s="7">
-        <v>88</v>
+        <v>774</v>
       </c>
       <c r="I22" s="7">
-        <v>55045</v>
+        <v>455391</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>664</v>
@@ -8385,22 +8388,22 @@
         <v>665</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>589</v>
+        <v>666</v>
       </c>
       <c r="M22" s="7">
-        <v>140</v>
+        <v>1303</v>
       </c>
       <c r="N22" s="7">
-        <v>101849</v>
+        <v>935897</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8456,55 +8459,55 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>819</v>
+        <v>73</v>
       </c>
       <c r="D24" s="7">
-        <v>553823</v>
+        <v>50850</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>645</v>
+        <v>671</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>670</v>
+        <v>546</v>
       </c>
       <c r="H24" s="7">
-        <v>1346</v>
+        <v>122</v>
       </c>
       <c r="I24" s="7">
-        <v>708247</v>
+        <v>177563</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>650</v>
+        <v>674</v>
       </c>
       <c r="M24" s="7">
-        <v>2165</v>
+        <v>195</v>
       </c>
       <c r="N24" s="7">
-        <v>1262070</v>
+        <v>228412</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>673</v>
+        <v>658</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8519,13 +8522,13 @@
         <v>92659</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="H25" s="7">
         <v>236</v>
@@ -8534,13 +8537,13 @@
         <v>138296</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="M25" s="7">
         <v>371</v>
@@ -8549,13 +8552,13 @@
         <v>230955</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>638</v>
+        <v>623</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8564,49 +8567,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>73</v>
+        <v>819</v>
       </c>
       <c r="D26" s="7">
-        <v>50850</v>
+        <v>553823</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>683</v>
+        <v>662</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="H26" s="7">
-        <v>122</v>
+        <v>1346</v>
       </c>
       <c r="I26" s="7">
-        <v>177563</v>
+        <v>708247</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>686</v>
+        <v>667</v>
       </c>
       <c r="M26" s="7">
-        <v>195</v>
+        <v>2165</v>
       </c>
       <c r="N26" s="7">
-        <v>228412</v>
+        <v>1262070</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>658</v>
+        <v>687</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8668,49 +8671,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2665</v>
+        <v>268</v>
       </c>
       <c r="D28" s="7">
-        <v>2668801</v>
+        <v>275230</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>569</v>
+        <v>690</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="H28" s="7">
-        <v>4171</v>
+        <v>457</v>
       </c>
       <c r="I28" s="7">
-        <v>2853859</v>
+        <v>447320</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>691</v>
+        <v>635</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="M28" s="7">
-        <v>6836</v>
+        <v>725</v>
       </c>
       <c r="N28" s="7">
-        <v>5522660</v>
+        <v>722550</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8725,13 +8728,13 @@
         <v>439405</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>659</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H29" s="7">
         <v>728</v>
@@ -8740,10 +8743,10 @@
         <v>527879</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>559</v>
@@ -8755,13 +8758,13 @@
         <v>967284</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8770,13 +8773,13 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>268</v>
+        <v>2665</v>
       </c>
       <c r="D30" s="7">
-        <v>275230</v>
+        <v>2668801</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>704</v>
+        <v>586</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>705</v>
@@ -8785,34 +8788,34 @@
         <v>706</v>
       </c>
       <c r="H30" s="7">
-        <v>457</v>
+        <v>4171</v>
       </c>
       <c r="I30" s="7">
-        <v>447320</v>
+        <v>2853859</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>633</v>
+        <v>707</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="M30" s="7">
-        <v>725</v>
+        <v>6836</v>
       </c>
       <c r="N30" s="7">
-        <v>722550</v>
+        <v>5522660</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8868,7 +8871,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P05A05-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P05A05-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA1C3191-5FA2-421F-B86E-DBE84BF25E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45C297E2-EEF8-46B9-958D-61F684742F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{892E1C65-56F6-4934-92C4-60E6A0963C19}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3659B08D-6940-4A8B-B642-7C479854FCA8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="719">
   <si>
     <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2007 (Tasa respuesta: 99,71%)</t>
   </si>
@@ -77,2107 +77,2125 @@
     <t>34,91%</t>
   </si>
   <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>Algo</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2012 (Tasa respuesta: 99,48%)</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
     <t>30,99%</t>
   </si>
   <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>Algo</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2016 (Tasa respuesta: 99,6%)</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
   </si>
   <si>
     <t>24,71%</t>
   </si>
   <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2023 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
   </si>
   <si>
     <t>47,82%</t>
   </si>
   <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2012 (Tasa respuesta: 99,48%)</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2016 (Tasa respuesta: 99,6%)</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2023 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
   </si>
   <si>
     <t>11,68%</t>
   </si>
   <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
+    <t>8,67%</t>
   </si>
   <si>
     <t>10,02%</t>
   </si>
   <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
+    <t>8,32%</t>
   </si>
   <si>
     <t>12,99%</t>
   </si>
   <si>
-    <t>14,33%</t>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
   </si>
   <si>
     <t>13,79%</t>
   </si>
   <si>
-    <t>12,35%</t>
+    <t>12,42%</t>
   </si>
   <si>
     <t>13,41%</t>
   </si>
   <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
   </si>
   <si>
     <t>74,53%</t>
   </si>
   <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
   </si>
   <si>
     <t>76,57%</t>
   </si>
   <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
   </si>
 </sst>
 </file>
@@ -2589,7 +2607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F28B83F-CE54-4063-9547-91B84DB17C74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E338DE-700C-405D-86E3-BF1979D9CE9B}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3412,13 +3430,13 @@
         <v>514459</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3433,13 +3451,13 @@
         <v>103402</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>99</v>
@@ -3451,10 +3469,10 @@
         <v>91</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>197</v>
@@ -3463,13 +3481,13 @@
         <v>204472</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3525,7 +3543,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3537,13 +3555,13 @@
         <v>124094</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H20" s="7">
         <v>130</v>
@@ -3552,13 +3570,13 @@
         <v>133588</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>257</v>
@@ -3567,13 +3585,13 @@
         <v>257682</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3588,13 +3606,13 @@
         <v>197752</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H21" s="7">
         <v>193</v>
@@ -3603,13 +3621,13 @@
         <v>195930</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>392</v>
@@ -3618,13 +3636,13 @@
         <v>393682</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3639,13 +3657,13 @@
         <v>62444</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>71</v>
@@ -3654,13 +3672,13 @@
         <v>72466</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>135</v>
@@ -3669,13 +3687,13 @@
         <v>134911</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3731,7 +3749,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3743,13 +3761,13 @@
         <v>156323</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>42</v>
+        <v>155</v>
       </c>
       <c r="H24" s="7">
         <v>214</v>
@@ -3758,13 +3776,13 @@
         <v>218542</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M24" s="7">
         <v>379</v>
@@ -3776,10 +3794,10 @@
         <v>48</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,13 +3812,13 @@
         <v>267771</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H25" s="7">
         <v>331</v>
@@ -3809,13 +3827,13 @@
         <v>337586</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M25" s="7">
         <v>605</v>
@@ -3824,13 +3842,13 @@
         <v>605357</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3845,13 +3863,13 @@
         <v>77504</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H26" s="7">
         <v>115</v>
@@ -3860,13 +3878,13 @@
         <v>119850</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M26" s="7">
         <v>198</v>
@@ -3875,13 +3893,13 @@
         <v>197354</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>175</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,13 +3967,13 @@
         <v>1072285</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H28" s="7">
         <v>1021</v>
@@ -3964,13 +3982,13 @@
         <v>1049737</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M28" s="7">
         <v>2066</v>
@@ -3979,13 +3997,13 @@
         <v>2122023</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4000,13 +4018,13 @@
         <v>1600498</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H29" s="7">
         <v>1637</v>
@@ -4015,13 +4033,13 @@
         <v>1672814</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M29" s="7">
         <v>3220</v>
@@ -4030,13 +4048,13 @@
         <v>3273311</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4051,13 +4069,13 @@
         <v>593263</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H30" s="7">
         <v>630</v>
@@ -4066,13 +4084,13 @@
         <v>646895</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M30" s="7">
         <v>1206</v>
@@ -4081,13 +4099,13 @@
         <v>1240158</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>91</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4143,7 +4161,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -4165,7 +4183,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019BFCE1-9E2D-4B53-92CA-1BF40C6F25CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED5DF63-E0A2-4C37-88A7-88A12E823DB9}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4182,7 +4200,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4289,13 +4307,13 @@
         <v>153264</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H4" s="7">
         <v>147</v>
@@ -4304,13 +4322,13 @@
         <v>150487</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M4" s="7">
         <v>297</v>
@@ -4319,13 +4337,13 @@
         <v>303751</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4340,13 +4358,13 @@
         <v>196344</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>216</v>
+        <v>24</v>
       </c>
       <c r="H5" s="7">
         <v>171</v>
@@ -4355,13 +4373,13 @@
         <v>175667</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M5" s="7">
         <v>364</v>
@@ -4370,13 +4388,13 @@
         <v>372010</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4391,13 +4409,13 @@
         <v>103586</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H6" s="7">
         <v>102</v>
@@ -4406,13 +4424,13 @@
         <v>103063</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>227</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>88</v>
+        <v>228</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M6" s="7">
         <v>204</v>
@@ -4421,13 +4439,13 @@
         <v>206649</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4495,13 +4513,13 @@
         <v>240728</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H8" s="7">
         <v>204</v>
@@ -4510,13 +4528,13 @@
         <v>221458</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M8" s="7">
         <v>434</v>
@@ -4525,13 +4543,13 @@
         <v>462186</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4546,13 +4564,13 @@
         <v>269126</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H9" s="7">
         <v>248</v>
@@ -4561,13 +4579,13 @@
         <v>264997</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>187</v>
+        <v>246</v>
       </c>
       <c r="M9" s="7">
         <v>519</v>
@@ -4576,13 +4594,13 @@
         <v>534123</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>44</v>
+        <v>248</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4597,13 +4615,13 @@
         <v>173561</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="H10" s="7">
         <v>119</v>
@@ -4612,13 +4630,13 @@
         <v>123800</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>251</v>
+        <v>118</v>
       </c>
       <c r="M10" s="7">
         <v>282</v>
@@ -4627,13 +4645,13 @@
         <v>297361</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4701,13 +4719,13 @@
         <v>212774</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>42</v>
+        <v>260</v>
       </c>
       <c r="H12" s="7">
         <v>223</v>
@@ -4716,13 +4734,13 @@
         <v>240845</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>213</v>
+        <v>263</v>
       </c>
       <c r="M12" s="7">
         <v>424</v>
@@ -4731,13 +4749,13 @@
         <v>453618</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4752,13 +4770,13 @@
         <v>302853</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>136</v>
+        <v>269</v>
       </c>
       <c r="H13" s="7">
         <v>272</v>
@@ -4767,13 +4785,13 @@
         <v>288412</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="M13" s="7">
         <v>561</v>
@@ -4782,13 +4800,13 @@
         <v>591265</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4803,13 +4821,13 @@
         <v>165509</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>117</v>
+        <v>276</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="H14" s="7">
         <v>168</v>
@@ -4818,13 +4836,13 @@
         <v>176838</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="M14" s="7">
         <v>328</v>
@@ -4833,13 +4851,13 @@
         <v>342347</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4907,13 +4925,13 @@
         <v>192143</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>278</v>
+        <v>214</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="H16" s="7">
         <v>179</v>
@@ -4922,13 +4940,13 @@
         <v>205203</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="M16" s="7">
         <v>348</v>
@@ -4937,13 +4955,13 @@
         <v>397346</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4958,13 +4976,13 @@
         <v>268299</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="H17" s="7">
         <v>206</v>
@@ -4973,13 +4991,13 @@
         <v>236169</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="M17" s="7">
         <v>442</v>
@@ -4988,13 +5006,13 @@
         <v>504468</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5009,13 +5027,13 @@
         <v>153151</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="H18" s="7">
         <v>150</v>
@@ -5024,13 +5042,13 @@
         <v>170483</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>33</v>
+        <v>306</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="M18" s="7">
         <v>292</v>
@@ -5039,13 +5057,13 @@
         <v>323634</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5101,7 +5119,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5113,13 +5131,13 @@
         <v>129604</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="H20" s="7">
         <v>125</v>
@@ -5128,13 +5146,13 @@
         <v>137145</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>12</v>
+        <v>314</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="M20" s="7">
         <v>242</v>
@@ -5143,13 +5161,13 @@
         <v>266750</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5164,13 +5182,13 @@
         <v>178787</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="H21" s="7">
         <v>179</v>
@@ -5179,13 +5197,13 @@
         <v>199062</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>266</v>
+        <v>323</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="M21" s="7">
         <v>341</v>
@@ -5194,13 +5212,13 @@
         <v>377849</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5215,13 +5233,13 @@
         <v>118909</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>320</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>234</v>
+        <v>330</v>
       </c>
       <c r="H22" s="7">
         <v>97</v>
@@ -5230,13 +5248,13 @@
         <v>106395</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="M22" s="7">
         <v>209</v>
@@ -5245,13 +5263,13 @@
         <v>225304</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5307,7 +5325,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5319,13 +5337,13 @@
         <v>172462</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="H24" s="7">
         <v>195</v>
@@ -5334,13 +5352,13 @@
         <v>211067</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="M24" s="7">
         <v>351</v>
@@ -5349,13 +5367,13 @@
         <v>383529</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5370,13 +5388,13 @@
         <v>237654</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="H25" s="7">
         <v>331</v>
@@ -5385,13 +5403,13 @@
         <v>352315</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="M25" s="7">
         <v>543</v>
@@ -5400,13 +5418,13 @@
         <v>589969</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5421,13 +5439,13 @@
         <v>140960</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="H26" s="7">
         <v>163</v>
@@ -5436,13 +5454,13 @@
         <v>174410</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>349</v>
+        <v>175</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="M26" s="7">
         <v>292</v>
@@ -5451,13 +5469,13 @@
         <v>315370</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5525,13 +5543,13 @@
         <v>1100975</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="H28" s="7">
         <v>1073</v>
@@ -5540,13 +5558,13 @@
         <v>1166206</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>278</v>
+        <v>365</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="M28" s="7">
         <v>2096</v>
@@ -5555,13 +5573,13 @@
         <v>2267181</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>359</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5576,13 +5594,13 @@
         <v>1453063</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="H29" s="7">
         <v>1407</v>
@@ -5591,13 +5609,13 @@
         <v>1516622</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>363</v>
+        <v>299</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="M29" s="7">
         <v>2770</v>
@@ -5606,13 +5624,13 @@
         <v>2969685</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5627,13 +5645,13 @@
         <v>855676</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="H30" s="7">
         <v>799</v>
@@ -5642,13 +5660,13 @@
         <v>854989</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="M30" s="7">
         <v>1607</v>
@@ -5657,13 +5675,13 @@
         <v>1710665</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5719,7 +5737,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -5741,7 +5759,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE84D85-0F2C-4AAE-81C2-C6A1A91BADC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F9514E-AC45-4B7F-B87F-EACB20764331}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5758,7 +5776,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5865,13 +5883,13 @@
         <v>156798</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="H4" s="7">
         <v>163</v>
@@ -5880,13 +5898,13 @@
         <v>163354</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="M4" s="7">
         <v>308</v>
@@ -5895,13 +5913,13 @@
         <v>320152</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>386</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5916,13 +5934,13 @@
         <v>162480</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="H5" s="7">
         <v>158</v>
@@ -5931,13 +5949,13 @@
         <v>151726</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="M5" s="7">
         <v>311</v>
@@ -5946,13 +5964,13 @@
         <v>314206</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>394</v>
+        <v>339</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5967,13 +5985,13 @@
         <v>98874</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="H6" s="7">
         <v>80</v>
@@ -5982,13 +6000,13 @@
         <v>77699</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="M6" s="7">
         <v>174</v>
@@ -5997,13 +6015,13 @@
         <v>176573</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>403</v>
+        <v>63</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6071,13 +6089,13 @@
         <v>220879</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="H8" s="7">
         <v>221</v>
@@ -6086,13 +6104,13 @@
         <v>214735</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="M8" s="7">
         <v>434</v>
@@ -6101,13 +6119,13 @@
         <v>435615</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6122,13 +6140,13 @@
         <v>246278</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="H9" s="7">
         <v>233</v>
@@ -6137,13 +6155,13 @@
         <v>226851</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>233</v>
+        <v>422</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="M9" s="7">
         <v>467</v>
@@ -6152,13 +6170,13 @@
         <v>473129</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>420</v>
+        <v>217</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6173,13 +6191,13 @@
         <v>123338</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>424</v>
+        <v>306</v>
       </c>
       <c r="H10" s="7">
         <v>124</v>
@@ -6188,13 +6206,13 @@
         <v>120952</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>425</v>
+        <v>303</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="M10" s="7">
         <v>244</v>
@@ -6203,13 +6221,13 @@
         <v>244291</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6277,13 +6295,13 @@
         <v>253003</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="H12" s="7">
         <v>248</v>
@@ -6292,13 +6310,13 @@
         <v>246099</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>235</v>
+        <v>270</v>
       </c>
       <c r="M12" s="7">
         <v>491</v>
@@ -6307,13 +6325,13 @@
         <v>499102</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>286</v>
+        <v>439</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>22</v>
+        <v>440</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6328,13 +6346,13 @@
         <v>265446</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>438</v>
+        <v>158</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="H13" s="7">
         <v>254</v>
@@ -6343,13 +6361,13 @@
         <v>251364</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>444</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="M13" s="7">
         <v>505</v>
@@ -6358,13 +6376,13 @@
         <v>516809</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6379,13 +6397,13 @@
         <v>147627</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>397</v>
+        <v>450</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>445</v>
+        <v>341</v>
       </c>
       <c r="H14" s="7">
         <v>162</v>
@@ -6394,13 +6412,13 @@
         <v>163022</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="M14" s="7">
         <v>303</v>
@@ -6409,13 +6427,13 @@
         <v>310649</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>34</v>
+        <v>453</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6483,13 +6501,13 @@
         <v>222602</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>451</v>
+        <v>296</v>
       </c>
       <c r="H16" s="7">
         <v>248</v>
@@ -6498,13 +6516,13 @@
         <v>263726</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="M16" s="7">
         <v>451</v>
@@ -6513,13 +6531,13 @@
         <v>486328</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>213</v>
+        <v>100</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6534,13 +6552,13 @@
         <v>244264</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>388</v>
+        <v>463</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="H17" s="7">
         <v>212</v>
@@ -6549,13 +6567,13 @@
         <v>228952</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="M17" s="7">
         <v>430</v>
@@ -6564,13 +6582,13 @@
         <v>473216</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>257</v>
+        <v>469</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6585,13 +6603,13 @@
         <v>173717</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="H18" s="7">
         <v>141</v>
@@ -6600,13 +6618,13 @@
         <v>155357</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="M18" s="7">
         <v>297</v>
@@ -6615,13 +6633,13 @@
         <v>329075</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6677,7 +6695,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6689,13 +6707,13 @@
         <v>179567</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>415</v>
+        <v>215</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>474</v>
+        <v>373</v>
       </c>
       <c r="H20" s="7">
         <v>167</v>
@@ -6704,13 +6722,13 @@
         <v>190466</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>477</v>
+        <v>371</v>
       </c>
       <c r="M20" s="7">
         <v>324</v>
@@ -6719,13 +6737,13 @@
         <v>370032</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>73</v>
+        <v>484</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6740,13 +6758,13 @@
         <v>192564</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>19</v>
+        <v>487</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="H21" s="7">
         <v>177</v>
@@ -6755,13 +6773,13 @@
         <v>204749</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>233</v>
+        <v>490</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>483</v>
+        <v>80</v>
       </c>
       <c r="M21" s="7">
         <v>349</v>
@@ -6770,13 +6788,13 @@
         <v>397313</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>485</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6791,13 +6809,13 @@
         <v>104787</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>487</v>
+        <v>196</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="H22" s="7">
         <v>88</v>
@@ -6806,13 +6824,13 @@
         <v>100519</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>489</v>
+        <v>68</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="M22" s="7">
         <v>182</v>
@@ -6821,13 +6839,13 @@
         <v>205306</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>494</v>
+        <v>309</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6883,7 +6901,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6895,13 +6913,13 @@
         <v>232196</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>317</v>
+        <v>499</v>
       </c>
       <c r="H24" s="7">
         <v>277</v>
@@ -6910,13 +6928,13 @@
         <v>330628</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>221</v>
+        <v>501</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="M24" s="7">
         <v>526</v>
@@ -6925,13 +6943,13 @@
         <v>562823</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6946,13 +6964,13 @@
         <v>225265</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="H25" s="7">
         <v>245</v>
@@ -6961,13 +6979,13 @@
         <v>290112</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="M25" s="7">
         <v>486</v>
@@ -6976,13 +6994,13 @@
         <v>515377</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6997,13 +7015,13 @@
         <v>132121</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="H26" s="7">
         <v>126</v>
@@ -7012,13 +7030,13 @@
         <v>149306</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="M26" s="7">
         <v>261</v>
@@ -7027,13 +7045,13 @@
         <v>281427</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>516</v>
+        <v>475</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7101,13 +7119,13 @@
         <v>1265044</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="H28" s="7">
         <v>1324</v>
@@ -7116,13 +7134,13 @@
         <v>1409008</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>522</v>
+        <v>412</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="M28" s="7">
         <v>2534</v>
@@ -7131,13 +7149,13 @@
         <v>2674052</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>526</v>
+        <v>441</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7152,13 +7170,13 @@
         <v>1336296</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>528</v>
+        <v>289</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H29" s="7">
         <v>1279</v>
@@ -7167,13 +7185,13 @@
         <v>1353753</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>462</v>
+        <v>532</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="M29" s="7">
         <v>2548</v>
@@ -7182,13 +7200,13 @@
         <v>2690049</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7203,13 +7221,13 @@
         <v>780465</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>46</v>
+        <v>538</v>
       </c>
       <c r="H30" s="7">
         <v>721</v>
@@ -7218,13 +7236,13 @@
         <v>766855</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>537</v>
+        <v>451</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M30" s="7">
         <v>1461</v>
@@ -7233,13 +7251,13 @@
         <v>1547320</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>540</v>
+        <v>148</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>541</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>369</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7266,7 +7284,7 @@
         <v>3324</v>
       </c>
       <c r="I31" s="7">
-        <v>3529617</v>
+        <v>3529616</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>40</v>
@@ -7295,7 +7313,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -7317,7 +7335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CF6720-C6E3-4E73-830F-142BE27211D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D329D18F-2943-4756-A7B3-9223FBB7CC6E}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7513,7 +7531,7 @@
         <v>556</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>513</v>
+        <v>557</v>
       </c>
       <c r="M5" s="7">
         <v>45</v>
@@ -7522,13 +7540,13 @@
         <v>84678</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7543,13 +7561,13 @@
         <v>317365</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H6" s="7">
         <v>161</v>
@@ -7558,13 +7576,13 @@
         <v>273792</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M6" s="7">
         <v>305</v>
@@ -7573,13 +7591,13 @@
         <v>591157</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7647,13 +7665,13 @@
         <v>32231</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H8" s="7">
         <v>43</v>
@@ -7662,13 +7680,13 @@
         <v>49355</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M8" s="7">
         <v>62</v>
@@ -7677,13 +7695,13 @@
         <v>81586</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7698,13 +7716,13 @@
         <v>58263</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H9" s="7">
         <v>54</v>
@@ -7713,13 +7731,13 @@
         <v>67955</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>321</v>
+        <v>584</v>
       </c>
       <c r="M9" s="7">
         <v>90</v>
@@ -7728,13 +7746,13 @@
         <v>126219</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7749,13 +7767,13 @@
         <v>337901</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="H10" s="7">
         <v>363</v>
@@ -7764,13 +7782,13 @@
         <v>381746</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="M10" s="7">
         <v>610</v>
@@ -7779,13 +7797,13 @@
         <v>719647</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7853,13 +7871,13 @@
         <v>60716</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="H12" s="7">
         <v>71</v>
@@ -7868,13 +7886,13 @@
         <v>52873</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="M12" s="7">
         <v>126</v>
@@ -7883,13 +7901,13 @@
         <v>113589</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7904,13 +7922,13 @@
         <v>72338</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="H13" s="7">
         <v>126</v>
@@ -7919,28 +7937,28 @@
         <v>94196</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="M13" s="7">
         <v>195</v>
       </c>
       <c r="N13" s="7">
-        <v>166535</v>
+        <v>166534</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7955,13 +7973,13 @@
         <v>422828</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="H14" s="7">
         <v>648</v>
@@ -7970,13 +7988,13 @@
         <v>461137</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="M14" s="7">
         <v>1067</v>
@@ -7985,13 +8003,13 @@
         <v>883966</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8033,7 +8051,7 @@
         <v>1388</v>
       </c>
       <c r="N15" s="7">
-        <v>1164090</v>
+        <v>1164089</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -8059,13 +8077,13 @@
         <v>59797</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="H16" s="7">
         <v>116</v>
@@ -8074,13 +8092,13 @@
         <v>80516</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="M16" s="7">
         <v>173</v>
@@ -8089,13 +8107,13 @@
         <v>140312</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>626</v>
+        <v>583</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8110,13 +8128,13 @@
         <v>107815</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="H17" s="7">
         <v>144</v>
@@ -8125,13 +8143,13 @@
         <v>92271</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="M17" s="7">
         <v>245</v>
@@ -8140,13 +8158,13 @@
         <v>200086</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8161,13 +8179,13 @@
         <v>556378</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="H18" s="7">
         <v>879</v>
@@ -8176,13 +8194,13 @@
         <v>573546</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="M18" s="7">
         <v>1386</v>
@@ -8191,13 +8209,13 @@
         <v>1129924</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8253,7 +8271,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -8265,13 +8283,13 @@
         <v>46803</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="H20" s="7">
         <v>88</v>
@@ -8280,13 +8298,13 @@
         <v>55045</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>571</v>
+        <v>652</v>
       </c>
       <c r="M20" s="7">
         <v>140</v>
@@ -8295,13 +8313,13 @@
         <v>101849</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8316,13 +8334,13 @@
         <v>72847</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="H21" s="7">
         <v>139</v>
@@ -8331,13 +8349,13 @@
         <v>85965</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="M21" s="7">
         <v>221</v>
@@ -8346,13 +8364,13 @@
         <v>158812</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8367,13 +8385,13 @@
         <v>480506</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="H22" s="7">
         <v>774</v>
@@ -8382,13 +8400,13 @@
         <v>455391</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="M22" s="7">
         <v>1303</v>
@@ -8397,13 +8415,13 @@
         <v>935897</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8459,7 +8477,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8471,13 +8489,13 @@
         <v>50850</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>546</v>
+        <v>676</v>
       </c>
       <c r="H24" s="7">
         <v>122</v>
@@ -8486,13 +8504,13 @@
         <v>177563</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="M24" s="7">
         <v>195</v>
@@ -8501,13 +8519,13 @@
         <v>228412</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8522,13 +8540,13 @@
         <v>92659</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>636</v>
+        <v>609</v>
       </c>
       <c r="H25" s="7">
         <v>236</v>
@@ -8537,13 +8555,13 @@
         <v>138296</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="M25" s="7">
         <v>371</v>
@@ -8552,13 +8570,13 @@
         <v>230955</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>623</v>
+        <v>687</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>629</v>
+        <v>688</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8573,13 +8591,13 @@
         <v>553823</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>662</v>
+        <v>690</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="H26" s="7">
         <v>1346</v>
@@ -8588,13 +8606,13 @@
         <v>708247</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>667</v>
+        <v>694</v>
       </c>
       <c r="M26" s="7">
         <v>2165</v>
@@ -8603,13 +8621,13 @@
         <v>1262070</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>687</v>
+        <v>695</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8677,13 +8695,13 @@
         <v>275230</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>692</v>
+        <v>650</v>
       </c>
       <c r="H28" s="7">
         <v>457</v>
@@ -8692,13 +8710,13 @@
         <v>447320</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>635</v>
+        <v>700</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>693</v>
+        <v>701</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>694</v>
+        <v>91</v>
       </c>
       <c r="M28" s="7">
         <v>725</v>
@@ -8707,13 +8725,13 @@
         <v>722550</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>697</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8728,28 +8746,28 @@
         <v>439405</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>659</v>
+        <v>705</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="H29" s="7">
         <v>728</v>
       </c>
       <c r="I29" s="7">
-        <v>527879</v>
+        <v>527880</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>559</v>
+        <v>639</v>
       </c>
       <c r="M29" s="7">
         <v>1167</v>
@@ -8758,13 +8776,13 @@
         <v>967284</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8779,13 +8797,13 @@
         <v>2668801</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="H30" s="7">
         <v>4171</v>
@@ -8794,13 +8812,13 @@
         <v>2853859</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="M30" s="7">
         <v>6836</v>
@@ -8809,13 +8827,13 @@
         <v>5522660</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8842,7 +8860,7 @@
         <v>5356</v>
       </c>
       <c r="I31" s="7">
-        <v>3829058</v>
+        <v>3829059</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>40</v>
@@ -8871,7 +8889,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P05A05-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P05A05-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45C297E2-EEF8-46B9-958D-61F684742F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{228ED257-A045-44E2-9C6A-A0F26ECC7433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3659B08D-6940-4A8B-B642-7C479854FCA8}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F21D70C2-6946-4E8B-8FD7-94D18937A62D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="818">
   <si>
     <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2007 (Tasa respuesta: 99,71%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Nada</t>
@@ -164,7 +164,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>34,99%</t>
@@ -248,7 +248,7 @@
     <t>20,28%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>30,04%</t>
@@ -332,7 +332,7 @@
     <t>22,02%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>33,27%</t>
@@ -413,7 +413,7 @@
     <t>22,45%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>32,29%</t>
@@ -497,1161 +497,1371 @@
     <t>19,76%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2012 (Tasa respuesta: 99,48%)</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2016 (Tasa respuesta: 99,6%)</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
   </si>
   <si>
     <t>35,91%</t>
   </si>
   <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
   </si>
   <si>
     <t>14,81%</t>
   </si>
   <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2012 (Tasa respuesta: 99,48%)</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2016 (Tasa respuesta: 99,6%)</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
   </si>
   <si>
     <t>23,08%</t>
   </si>
   <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
     <t>21,63%</t>
   </si>
   <si>
@@ -1670,532 +1880,619 @@
     <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2023 (Tasa respuesta: 99,83%)</t>
   </si>
   <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
   </si>
   <si>
     <t>11,67%</t>
   </si>
   <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
   </si>
   <si>
     <t>9,59%</t>
   </si>
   <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
   </si>
   <si>
     <t>12,74%</t>
   </si>
   <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
   </si>
   <si>
     <t>11,57%</t>
   </si>
   <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
   </si>
 </sst>
 </file>
@@ -2607,8 +2904,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E338DE-700C-405D-86E3-BF1979D9CE9B}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884E6627-B7B6-4B63-BB9B-1BE0677D5937}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3755,10 +4052,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="D24" s="7">
-        <v>156323</v>
+        <v>89964</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>153</v>
@@ -3770,10 +4067,10 @@
         <v>155</v>
       </c>
       <c r="H24" s="7">
-        <v>214</v>
+        <v>121</v>
       </c>
       <c r="I24" s="7">
-        <v>218542</v>
+        <v>111193</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>156</v>
@@ -3785,19 +4082,19 @@
         <v>158</v>
       </c>
       <c r="M24" s="7">
-        <v>379</v>
+        <v>216</v>
       </c>
       <c r="N24" s="7">
-        <v>374865</v>
+        <v>201158</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3806,49 +4103,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>274</v>
+        <v>162</v>
       </c>
       <c r="D25" s="7">
-        <v>267771</v>
+        <v>160263</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H25" s="7">
-        <v>331</v>
+        <v>184</v>
       </c>
       <c r="I25" s="7">
-        <v>337586</v>
+        <v>170307</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M25" s="7">
-        <v>605</v>
+        <v>346</v>
       </c>
       <c r="N25" s="7">
-        <v>605357</v>
+        <v>330571</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3857,49 +4154,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="D26" s="7">
-        <v>77504</v>
+        <v>42355</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H26" s="7">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="I26" s="7">
-        <v>119850</v>
+        <v>60569</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M26" s="7">
-        <v>198</v>
+        <v>111</v>
       </c>
       <c r="N26" s="7">
-        <v>197354</v>
+        <v>102925</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3908,10 +4205,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>522</v>
+        <v>303</v>
       </c>
       <c r="D27" s="7">
-        <v>501598</v>
+        <v>292583</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -3923,10 +4220,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>660</v>
+        <v>370</v>
       </c>
       <c r="I27" s="7">
-        <v>675978</v>
+        <v>342070</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -3938,10 +4235,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>1182</v>
+        <v>673</v>
       </c>
       <c r="N27" s="7">
-        <v>1177576</v>
+        <v>634653</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -3955,55 +4252,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>1045</v>
+        <v>70</v>
       </c>
       <c r="D28" s="7">
-        <v>1072285</v>
+        <v>66358</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>178</v>
+        <v>43</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H28" s="7">
-        <v>1021</v>
+        <v>93</v>
       </c>
       <c r="I28" s="7">
-        <v>1049737</v>
+        <v>107349</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M28" s="7">
-        <v>2066</v>
+        <v>163</v>
       </c>
       <c r="N28" s="7">
-        <v>2122023</v>
+        <v>173708</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4012,49 +4309,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>1583</v>
+        <v>112</v>
       </c>
       <c r="D29" s="7">
-        <v>1600498</v>
+        <v>107508</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H29" s="7">
-        <v>1637</v>
+        <v>147</v>
       </c>
       <c r="I29" s="7">
-        <v>1672814</v>
+        <v>167279</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M29" s="7">
-        <v>3220</v>
+        <v>259</v>
       </c>
       <c r="N29" s="7">
-        <v>3273311</v>
+        <v>274786</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4063,49 +4360,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>576</v>
+        <v>37</v>
       </c>
       <c r="D30" s="7">
-        <v>593263</v>
+        <v>35149</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H30" s="7">
-        <v>630</v>
+        <v>50</v>
       </c>
       <c r="I30" s="7">
-        <v>646895</v>
+        <v>59280</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
       <c r="M30" s="7">
-        <v>1206</v>
+        <v>87</v>
       </c>
       <c r="N30" s="7">
-        <v>1240158</v>
+        <v>94429</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4114,63 +4411,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>219</v>
+      </c>
+      <c r="D31" s="7">
+        <v>209015</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>290</v>
+      </c>
+      <c r="I31" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>509</v>
+      </c>
+      <c r="N31" s="7">
+        <v>542923</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1045</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1072285</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H32" s="7">
+        <v>1021</v>
+      </c>
+      <c r="I32" s="7">
+        <v>1049737</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="M32" s="7">
+        <v>2066</v>
+      </c>
+      <c r="N32" s="7">
+        <v>2122023</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1583</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1600498</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H33" s="7">
+        <v>1637</v>
+      </c>
+      <c r="I33" s="7">
+        <v>1672814</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="M33" s="7">
+        <v>3220</v>
+      </c>
+      <c r="N33" s="7">
+        <v>3273311</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>576</v>
+      </c>
+      <c r="D34" s="7">
+        <v>593263</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H34" s="7">
+        <v>630</v>
+      </c>
+      <c r="I34" s="7">
+        <v>646895</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1206</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1240158</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3204</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>3266046</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>3288</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>3369446</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>6492</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>6635492</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>205</v>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4183,8 +4687,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED5DF63-E0A2-4C37-88A7-88A12E823DB9}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1A7566-50A4-4943-B2F7-5F770CDB7A52}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4200,7 +4704,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4307,13 +4811,13 @@
         <v>153264</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="H4" s="7">
         <v>147</v>
@@ -4322,13 +4826,13 @@
         <v>150487</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="M4" s="7">
         <v>297</v>
@@ -4337,13 +4841,13 @@
         <v>303751</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4358,10 +4862,10 @@
         <v>196344</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>24</v>
@@ -4373,13 +4877,13 @@
         <v>175667</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="M5" s="7">
         <v>364</v>
@@ -4388,13 +4892,13 @@
         <v>372010</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4409,13 +4913,13 @@
         <v>103586</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="H6" s="7">
         <v>102</v>
@@ -4424,13 +4928,13 @@
         <v>103063</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="M6" s="7">
         <v>204</v>
@@ -4439,13 +4943,13 @@
         <v>206649</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4513,13 +5017,13 @@
         <v>240728</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="H8" s="7">
         <v>204</v>
@@ -4528,13 +5032,13 @@
         <v>221458</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="M8" s="7">
         <v>434</v>
@@ -4543,13 +5047,13 @@
         <v>462186</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4564,13 +5068,13 @@
         <v>269126</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="H9" s="7">
         <v>248</v>
@@ -4579,13 +5083,13 @@
         <v>264997</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="M9" s="7">
         <v>519</v>
@@ -4594,13 +5098,13 @@
         <v>534123</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4615,13 +5119,13 @@
         <v>173561</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="H10" s="7">
         <v>119</v>
@@ -4630,10 +5134,10 @@
         <v>123800</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>118</v>
@@ -4645,13 +5149,13 @@
         <v>297361</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4719,13 +5223,13 @@
         <v>212774</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="H12" s="7">
         <v>223</v>
@@ -4734,13 +5238,13 @@
         <v>240845</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="M12" s="7">
         <v>424</v>
@@ -4749,13 +5253,13 @@
         <v>453618</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4770,13 +5274,13 @@
         <v>302853</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="H13" s="7">
         <v>272</v>
@@ -4785,13 +5289,13 @@
         <v>288412</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="M13" s="7">
         <v>561</v>
@@ -4800,13 +5304,13 @@
         <v>591265</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4821,13 +5325,13 @@
         <v>165509</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="H14" s="7">
         <v>168</v>
@@ -4836,13 +5340,13 @@
         <v>176838</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="M14" s="7">
         <v>328</v>
@@ -4851,13 +5355,13 @@
         <v>342347</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4925,13 +5429,13 @@
         <v>192143</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="H16" s="7">
         <v>179</v>
@@ -4940,13 +5444,13 @@
         <v>205203</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="M16" s="7">
         <v>348</v>
@@ -4955,13 +5459,13 @@
         <v>397346</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4976,13 +5480,13 @@
         <v>268299</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="H17" s="7">
         <v>206</v>
@@ -4991,13 +5495,13 @@
         <v>236169</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="M17" s="7">
         <v>442</v>
@@ -5006,13 +5510,13 @@
         <v>504468</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5027,13 +5531,13 @@
         <v>153151</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>304</v>
+        <v>332</v>
       </c>
       <c r="H18" s="7">
         <v>150</v>
@@ -5042,13 +5546,13 @@
         <v>170483</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>306</v>
+        <v>334</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="M18" s="7">
         <v>292</v>
@@ -5057,13 +5561,13 @@
         <v>323634</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>308</v>
+        <v>336</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>309</v>
+        <v>337</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5131,13 +5635,13 @@
         <v>129604</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>311</v>
+        <v>339</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="H20" s="7">
         <v>125</v>
@@ -5146,13 +5650,13 @@
         <v>137145</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>316</v>
+        <v>344</v>
       </c>
       <c r="M20" s="7">
         <v>242</v>
@@ -5161,13 +5665,13 @@
         <v>266750</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>317</v>
+        <v>345</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>318</v>
+        <v>346</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>319</v>
+        <v>347</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5182,13 +5686,13 @@
         <v>178787</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>320</v>
+        <v>348</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>321</v>
+        <v>349</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>322</v>
+        <v>350</v>
       </c>
       <c r="H21" s="7">
         <v>179</v>
@@ -5197,13 +5701,13 @@
         <v>199062</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>323</v>
+        <v>351</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>324</v>
+        <v>352</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>325</v>
+        <v>353</v>
       </c>
       <c r="M21" s="7">
         <v>341</v>
@@ -5212,13 +5716,13 @@
         <v>377849</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>326</v>
+        <v>354</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>328</v>
+        <v>356</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5236,10 +5740,10 @@
         <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="H22" s="7">
         <v>97</v>
@@ -5248,13 +5752,13 @@
         <v>106395</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>331</v>
+        <v>359</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>332</v>
+        <v>360</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="M22" s="7">
         <v>209</v>
@@ -5263,13 +5767,13 @@
         <v>225304</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>334</v>
+        <v>362</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>335</v>
+        <v>363</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5331,49 +5835,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="D24" s="7">
-        <v>172462</v>
+        <v>99003</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>337</v>
+        <v>365</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>338</v>
+        <v>366</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>339</v>
+        <v>100</v>
       </c>
       <c r="H24" s="7">
-        <v>195</v>
+        <v>90</v>
       </c>
       <c r="I24" s="7">
-        <v>211067</v>
+        <v>92863</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>340</v>
+        <v>367</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="M24" s="7">
-        <v>351</v>
+        <v>180</v>
       </c>
       <c r="N24" s="7">
-        <v>383529</v>
+        <v>191867</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>345</v>
+        <v>371</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5382,49 +5886,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>212</v>
+        <v>117</v>
       </c>
       <c r="D25" s="7">
-        <v>237654</v>
+        <v>130065</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>347</v>
+        <v>373</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>348</v>
+        <v>374</v>
       </c>
       <c r="H25" s="7">
-        <v>331</v>
+        <v>165</v>
       </c>
       <c r="I25" s="7">
-        <v>352315</v>
+        <v>167209</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>246</v>
+        <v>375</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>349</v>
+        <v>376</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="M25" s="7">
-        <v>543</v>
+        <v>282</v>
       </c>
       <c r="N25" s="7">
-        <v>589969</v>
+        <v>297274</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>351</v>
+        <v>378</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>352</v>
+        <v>379</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>353</v>
+        <v>380</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5433,49 +5937,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="D26" s="7">
-        <v>140960</v>
+        <v>79689</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>354</v>
+        <v>381</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>355</v>
+        <v>382</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>356</v>
+        <v>383</v>
       </c>
       <c r="H26" s="7">
-        <v>163</v>
+        <v>86</v>
       </c>
       <c r="I26" s="7">
-        <v>174410</v>
+        <v>91014</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>357</v>
+        <v>384</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>175</v>
+        <v>385</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>358</v>
+        <v>386</v>
       </c>
       <c r="M26" s="7">
-        <v>292</v>
+        <v>160</v>
       </c>
       <c r="N26" s="7">
-        <v>315370</v>
+        <v>170704</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>359</v>
+        <v>387</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>360</v>
+        <v>388</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>361</v>
+        <v>389</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5484,10 +5988,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>497</v>
+        <v>281</v>
       </c>
       <c r="D27" s="7">
-        <v>551076</v>
+        <v>308758</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -5499,10 +6003,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>689</v>
+        <v>341</v>
       </c>
       <c r="I27" s="7">
-        <v>737792</v>
+        <v>351086</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -5514,10 +6018,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>1186</v>
+        <v>622</v>
       </c>
       <c r="N27" s="7">
-        <v>1288868</v>
+        <v>659845</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -5531,55 +6035,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>1023</v>
+        <v>66</v>
       </c>
       <c r="D28" s="7">
-        <v>1100975</v>
+        <v>73458</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>362</v>
+        <v>390</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>363</v>
+        <v>391</v>
       </c>
       <c r="H28" s="7">
-        <v>1073</v>
+        <v>105</v>
       </c>
       <c r="I28" s="7">
-        <v>1166206</v>
+        <v>118204</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>364</v>
+        <v>392</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>365</v>
+        <v>393</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>366</v>
+        <v>394</v>
       </c>
       <c r="M28" s="7">
-        <v>2096</v>
+        <v>171</v>
       </c>
       <c r="N28" s="7">
-        <v>2267181</v>
+        <v>191662</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>367</v>
+        <v>395</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>368</v>
+        <v>396</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>207</v>
+        <v>397</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5588,49 +6092,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>1363</v>
+        <v>95</v>
       </c>
       <c r="D29" s="7">
-        <v>1453063</v>
+        <v>107589</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>273</v>
+        <v>398</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>369</v>
+        <v>399</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="H29" s="7">
-        <v>1407</v>
+        <v>166</v>
       </c>
       <c r="I29" s="7">
-        <v>1516622</v>
+        <v>185106</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>371</v>
+        <v>401</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>299</v>
+        <v>402</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>372</v>
+        <v>403</v>
       </c>
       <c r="M29" s="7">
-        <v>2770</v>
+        <v>261</v>
       </c>
       <c r="N29" s="7">
-        <v>2969685</v>
+        <v>292695</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>373</v>
+        <v>404</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>374</v>
+        <v>405</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>375</v>
+        <v>406</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5639,49 +6143,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>808</v>
+        <v>55</v>
       </c>
       <c r="D30" s="7">
-        <v>855676</v>
+        <v>61271</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>376</v>
+        <v>407</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>377</v>
+        <v>408</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>378</v>
+        <v>409</v>
       </c>
       <c r="H30" s="7">
-        <v>799</v>
+        <v>77</v>
       </c>
       <c r="I30" s="7">
-        <v>854989</v>
+        <v>83395</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>379</v>
+        <v>410</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>380</v>
+        <v>174</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>381</v>
+        <v>411</v>
       </c>
       <c r="M30" s="7">
-        <v>1607</v>
+        <v>132</v>
       </c>
       <c r="N30" s="7">
-        <v>1710665</v>
+        <v>144666</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>382</v>
+        <v>412</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>383</v>
+        <v>413</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>381</v>
+        <v>414</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5690,63 +6194,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>216</v>
+      </c>
+      <c r="D31" s="7">
+        <v>242318</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>348</v>
+      </c>
+      <c r="I31" s="7">
+        <v>386705</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>564</v>
+      </c>
+      <c r="N31" s="7">
+        <v>629023</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1023</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1100975</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="H32" s="7">
+        <v>1073</v>
+      </c>
+      <c r="I32" s="7">
+        <v>1166206</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="M32" s="7">
+        <v>2096</v>
+      </c>
+      <c r="N32" s="7">
+        <v>2267181</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1363</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1453063</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="H33" s="7">
+        <v>1407</v>
+      </c>
+      <c r="I33" s="7">
+        <v>1516622</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="M33" s="7">
+        <v>2770</v>
+      </c>
+      <c r="N33" s="7">
+        <v>2969685</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>808</v>
+      </c>
+      <c r="D34" s="7">
+        <v>855676</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="H34" s="7">
+        <v>799</v>
+      </c>
+      <c r="I34" s="7">
+        <v>854989</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1607</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1710665</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3194</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>3409714</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>3279</v>
       </c>
-      <c r="I31" s="7">
-        <v>3537816</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I35" s="7">
+        <v>3537817</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>6473</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>6947531</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>205</v>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5759,8 +6470,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F9514E-AC45-4B7F-B87F-EACB20764331}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEAADEB3-1299-466C-937F-8695E23E2254}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5776,7 +6487,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>384</v>
+        <v>437</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5883,13 +6594,13 @@
         <v>156798</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>385</v>
+        <v>158</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>386</v>
+        <v>438</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>387</v>
+        <v>439</v>
       </c>
       <c r="H4" s="7">
         <v>163</v>
@@ -5898,13 +6609,13 @@
         <v>163354</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>388</v>
+        <v>440</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>389</v>
+        <v>441</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>390</v>
+        <v>442</v>
       </c>
       <c r="M4" s="7">
         <v>308</v>
@@ -5913,13 +6624,13 @@
         <v>320152</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>391</v>
+        <v>443</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>392</v>
+        <v>444</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>352</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5934,13 +6645,13 @@
         <v>162480</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>393</v>
+        <v>446</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>394</v>
+        <v>447</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>395</v>
+        <v>448</v>
       </c>
       <c r="H5" s="7">
         <v>158</v>
@@ -5949,13 +6660,13 @@
         <v>151726</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>396</v>
+        <v>449</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>397</v>
+        <v>450</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>398</v>
+        <v>451</v>
       </c>
       <c r="M5" s="7">
         <v>311</v>
@@ -5964,13 +6675,13 @@
         <v>314206</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>399</v>
+        <v>452</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>339</v>
+        <v>453</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>400</v>
+        <v>454</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5985,13 +6696,13 @@
         <v>98874</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>401</v>
+        <v>455</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>403</v>
+        <v>457</v>
       </c>
       <c r="H6" s="7">
         <v>80</v>
@@ -6000,13 +6711,13 @@
         <v>77699</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>404</v>
+        <v>458</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>405</v>
+        <v>459</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>406</v>
+        <v>460</v>
       </c>
       <c r="M6" s="7">
         <v>174</v>
@@ -6015,13 +6726,13 @@
         <v>176573</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>407</v>
+        <v>461</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>63</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>408</v>
+        <v>462</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6089,13 +6800,13 @@
         <v>220879</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>409</v>
+        <v>463</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>410</v>
+        <v>464</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>411</v>
+        <v>465</v>
       </c>
       <c r="H8" s="7">
         <v>221</v>
@@ -6104,13 +6815,13 @@
         <v>214735</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>412</v>
+        <v>466</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>413</v>
+        <v>467</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>414</v>
+        <v>468</v>
       </c>
       <c r="M8" s="7">
         <v>434</v>
@@ -6119,13 +6830,13 @@
         <v>435615</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>415</v>
+        <v>469</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>416</v>
+        <v>470</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>417</v>
+        <v>471</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6140,13 +6851,13 @@
         <v>246278</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>418</v>
+        <v>472</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>419</v>
+        <v>473</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>420</v>
+        <v>474</v>
       </c>
       <c r="H9" s="7">
         <v>233</v>
@@ -6155,13 +6866,13 @@
         <v>226851</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>421</v>
+        <v>475</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>422</v>
+        <v>476</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>423</v>
+        <v>477</v>
       </c>
       <c r="M9" s="7">
         <v>467</v>
@@ -6170,13 +6881,13 @@
         <v>473129</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>424</v>
+        <v>478</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>425</v>
+        <v>479</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6191,13 +6902,13 @@
         <v>123338</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>426</v>
+        <v>382</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>427</v>
+        <v>480</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>306</v>
+        <v>334</v>
       </c>
       <c r="H10" s="7">
         <v>124</v>
@@ -6206,13 +6917,13 @@
         <v>120952</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>428</v>
+        <v>481</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>429</v>
+        <v>482</v>
       </c>
       <c r="M10" s="7">
         <v>244</v>
@@ -6221,13 +6932,13 @@
         <v>244291</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>430</v>
+        <v>483</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>431</v>
+        <v>484</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>432</v>
+        <v>485</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6295,13 +7006,13 @@
         <v>253003</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>433</v>
+        <v>486</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>434</v>
+        <v>397</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>435</v>
+        <v>487</v>
       </c>
       <c r="H12" s="7">
         <v>248</v>
@@ -6310,13 +7021,13 @@
         <v>246099</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>436</v>
+        <v>488</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>437</v>
+        <v>489</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="M12" s="7">
         <v>491</v>
@@ -6325,13 +7036,13 @@
         <v>499102</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>438</v>
+        <v>490</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>439</v>
+        <v>491</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>440</v>
+        <v>492</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6346,13 +7057,13 @@
         <v>265446</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>441</v>
+        <v>493</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>158</v>
+        <v>494</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>442</v>
+        <v>495</v>
       </c>
       <c r="H13" s="7">
         <v>254</v>
@@ -6361,13 +7072,13 @@
         <v>251364</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>443</v>
+        <v>496</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>444</v>
+        <v>497</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>445</v>
+        <v>498</v>
       </c>
       <c r="M13" s="7">
         <v>505</v>
@@ -6376,13 +7087,13 @@
         <v>516809</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>446</v>
+        <v>499</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>447</v>
+        <v>500</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>448</v>
+        <v>501</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6397,13 +7108,13 @@
         <v>147627</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>449</v>
+        <v>502</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>450</v>
+        <v>503</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>341</v>
+        <v>504</v>
       </c>
       <c r="H14" s="7">
         <v>162</v>
@@ -6412,13 +7123,13 @@
         <v>163022</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>451</v>
+        <v>505</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>452</v>
+        <v>506</v>
       </c>
       <c r="M14" s="7">
         <v>303</v>
@@ -6427,13 +7138,13 @@
         <v>310649</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>453</v>
+        <v>507</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>454</v>
+        <v>508</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6501,13 +7212,13 @@
         <v>222602</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>455</v>
+        <v>509</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>456</v>
+        <v>510</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
       <c r="H16" s="7">
         <v>248</v>
@@ -6516,13 +7227,13 @@
         <v>263726</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>457</v>
+        <v>511</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>458</v>
+        <v>512</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>459</v>
+        <v>513</v>
       </c>
       <c r="M16" s="7">
         <v>451</v>
@@ -6534,10 +7245,10 @@
         <v>100</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>460</v>
+        <v>514</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>461</v>
+        <v>515</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6552,13 +7263,13 @@
         <v>244264</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>462</v>
+        <v>516</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>463</v>
+        <v>517</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>464</v>
+        <v>518</v>
       </c>
       <c r="H17" s="7">
         <v>212</v>
@@ -6567,13 +7278,13 @@
         <v>228952</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>466</v>
+        <v>369</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>467</v>
+        <v>520</v>
       </c>
       <c r="M17" s="7">
         <v>430</v>
@@ -6582,13 +7293,13 @@
         <v>473216</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>468</v>
+        <v>521</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>469</v>
+        <v>522</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>470</v>
+        <v>523</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6603,13 +7314,13 @@
         <v>173717</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>471</v>
+        <v>524</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>472</v>
+        <v>525</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>473</v>
+        <v>526</v>
       </c>
       <c r="H18" s="7">
         <v>141</v>
@@ -6618,13 +7329,13 @@
         <v>155357</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>474</v>
+        <v>527</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>475</v>
+        <v>528</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>476</v>
+        <v>529</v>
       </c>
       <c r="M18" s="7">
         <v>297</v>
@@ -6633,13 +7344,13 @@
         <v>329075</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>477</v>
+        <v>530</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>478</v>
+        <v>531</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>479</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6707,13 +7418,13 @@
         <v>179567</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>480</v>
+        <v>532</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>373</v>
+        <v>426</v>
       </c>
       <c r="H20" s="7">
         <v>167</v>
@@ -6722,13 +7433,13 @@
         <v>190466</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>481</v>
+        <v>533</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>482</v>
+        <v>534</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>371</v>
+        <v>424</v>
       </c>
       <c r="M20" s="7">
         <v>324</v>
@@ -6737,13 +7448,13 @@
         <v>370032</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>483</v>
+        <v>535</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>484</v>
+        <v>536</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>485</v>
+        <v>537</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6758,13 +7469,13 @@
         <v>192564</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>486</v>
+        <v>538</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>487</v>
+        <v>539</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>488</v>
+        <v>540</v>
       </c>
       <c r="H21" s="7">
         <v>177</v>
@@ -6773,10 +7484,10 @@
         <v>204749</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>489</v>
+        <v>541</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>490</v>
+        <v>542</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>80</v>
@@ -6788,13 +7499,13 @@
         <v>397313</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>491</v>
+        <v>543</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6809,13 +7520,13 @@
         <v>104787</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>492</v>
+        <v>544</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>493</v>
+        <v>381</v>
       </c>
       <c r="H22" s="7">
         <v>88</v>
@@ -6827,10 +7538,10 @@
         <v>68</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>494</v>
+        <v>545</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>495</v>
+        <v>546</v>
       </c>
       <c r="M22" s="7">
         <v>182</v>
@@ -6839,13 +7550,13 @@
         <v>205306</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>496</v>
+        <v>547</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>497</v>
+        <v>548</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>309</v>
+        <v>337</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6907,49 +7618,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>249</v>
+        <v>133</v>
       </c>
       <c r="D24" s="7">
-        <v>232196</v>
+        <v>133630</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>241</v>
+        <v>549</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>498</v>
+        <v>550</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>499</v>
+        <v>551</v>
       </c>
       <c r="H24" s="7">
+        <v>144</v>
+      </c>
+      <c r="I24" s="7">
+        <v>154280</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="M24" s="7">
         <v>277</v>
       </c>
-      <c r="I24" s="7">
-        <v>330628</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="M24" s="7">
-        <v>526</v>
-      </c>
       <c r="N24" s="7">
-        <v>562823</v>
+        <v>287911</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>503</v>
+        <v>554</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>504</v>
+        <v>555</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>505</v>
+        <v>556</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6958,49 +7669,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>241</v>
+        <v>112</v>
       </c>
       <c r="D25" s="7">
-        <v>225265</v>
+        <v>116100</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>506</v>
+        <v>78</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>507</v>
+        <v>557</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>508</v>
+        <v>558</v>
       </c>
       <c r="H25" s="7">
-        <v>245</v>
+        <v>132</v>
       </c>
       <c r="I25" s="7">
-        <v>290112</v>
+        <v>138968</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>510</v>
+        <v>183</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>511</v>
+        <v>559</v>
       </c>
       <c r="M25" s="7">
-        <v>486</v>
+        <v>244</v>
       </c>
       <c r="N25" s="7">
-        <v>515377</v>
+        <v>255068</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>512</v>
+        <v>444</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>513</v>
+        <v>560</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>514</v>
+        <v>561</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7009,49 +7720,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="D26" s="7">
-        <v>132121</v>
+        <v>83653</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>515</v>
+        <v>562</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>516</v>
+        <v>563</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>517</v>
+        <v>564</v>
       </c>
       <c r="H26" s="7">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="I26" s="7">
-        <v>149306</v>
+        <v>80441</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>518</v>
+        <v>565</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>519</v>
+        <v>566</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>520</v>
+        <v>567</v>
       </c>
       <c r="M26" s="7">
-        <v>261</v>
+        <v>153</v>
       </c>
       <c r="N26" s="7">
-        <v>281427</v>
+        <v>164094</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>475</v>
+        <v>568</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>521</v>
+        <v>569</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>522</v>
+        <v>367</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7060,10 +7771,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>625</v>
+        <v>324</v>
       </c>
       <c r="D27" s="7">
-        <v>589581</v>
+        <v>333384</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -7075,10 +7786,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>648</v>
+        <v>350</v>
       </c>
       <c r="I27" s="7">
-        <v>770046</v>
+        <v>373689</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -7090,10 +7801,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>1273</v>
+        <v>674</v>
       </c>
       <c r="N27" s="7">
-        <v>1359627</v>
+        <v>707073</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -7107,55 +7818,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>1210</v>
+        <v>116</v>
       </c>
       <c r="D28" s="7">
-        <v>1265044</v>
+        <v>98565</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>409</v>
+        <v>276</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>523</v>
+        <v>570</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>524</v>
+        <v>571</v>
       </c>
       <c r="H28" s="7">
-        <v>1324</v>
+        <v>133</v>
       </c>
       <c r="I28" s="7">
-        <v>1409008</v>
+        <v>176347</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>525</v>
+        <v>572</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>412</v>
+        <v>573</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>526</v>
+        <v>574</v>
       </c>
       <c r="M28" s="7">
-        <v>2534</v>
+        <v>249</v>
       </c>
       <c r="N28" s="7">
-        <v>2674052</v>
+        <v>274913</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>527</v>
+        <v>372</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>528</v>
+        <v>575</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>441</v>
+        <v>576</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7164,49 +7875,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>1269</v>
+        <v>129</v>
       </c>
       <c r="D29" s="7">
-        <v>1336296</v>
+        <v>109164</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>529</v>
+        <v>577</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>289</v>
+        <v>578</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>530</v>
+        <v>579</v>
       </c>
       <c r="H29" s="7">
-        <v>1279</v>
+        <v>113</v>
       </c>
       <c r="I29" s="7">
-        <v>1353753</v>
+        <v>151144</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>532</v>
+        <v>580</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>533</v>
+        <v>581</v>
       </c>
       <c r="M29" s="7">
-        <v>2548</v>
+        <v>242</v>
       </c>
       <c r="N29" s="7">
-        <v>2690049</v>
+        <v>260309</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>534</v>
+        <v>582</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>535</v>
+        <v>583</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>536</v>
+        <v>584</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7215,49 +7926,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>740</v>
+        <v>56</v>
       </c>
       <c r="D30" s="7">
-        <v>780465</v>
+        <v>48467</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>520</v>
+        <v>585</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>537</v>
+        <v>586</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>538</v>
+        <v>255</v>
       </c>
       <c r="H30" s="7">
-        <v>721</v>
+        <v>52</v>
       </c>
       <c r="I30" s="7">
-        <v>766855</v>
+        <v>68865</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>451</v>
+        <v>587</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>539</v>
+        <v>588</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>540</v>
+        <v>96</v>
       </c>
       <c r="M30" s="7">
-        <v>1461</v>
+        <v>108</v>
       </c>
       <c r="N30" s="7">
-        <v>1547320</v>
+        <v>117333</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>148</v>
+        <v>589</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>541</v>
+        <v>590</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>230</v>
+        <v>591</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7266,63 +7977,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>301</v>
+      </c>
+      <c r="D31" s="7">
+        <v>256196</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>298</v>
+      </c>
+      <c r="I31" s="7">
+        <v>396357</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>599</v>
+      </c>
+      <c r="N31" s="7">
+        <v>652554</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1210</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1265044</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="H32" s="7">
+        <v>1324</v>
+      </c>
+      <c r="I32" s="7">
+        <v>1409008</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="M32" s="7">
+        <v>2534</v>
+      </c>
+      <c r="N32" s="7">
+        <v>2674052</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1269</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1336296</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="H33" s="7">
+        <v>1279</v>
+      </c>
+      <c r="I33" s="7">
+        <v>1353753</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="M33" s="7">
+        <v>2548</v>
+      </c>
+      <c r="N33" s="7">
+        <v>2690049</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>740</v>
+      </c>
+      <c r="D34" s="7">
+        <v>780465</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="H34" s="7">
+        <v>721</v>
+      </c>
+      <c r="I34" s="7">
+        <v>766855</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1461</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1547320</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3219</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>3381804</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>3324</v>
       </c>
-      <c r="I31" s="7">
-        <v>3529616</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I35" s="7">
+        <v>3529617</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>6543</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>6911421</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>205</v>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -7335,8 +8253,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D329D18F-2943-4756-A7B3-9223FBB7CC6E}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC3984F2-E817-4A3D-B07A-1CD5AEDE5307}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -7352,7 +8270,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>542</v>
+        <v>612</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7456,46 +8374,46 @@
         <v>12</v>
       </c>
       <c r="D4" s="7">
-        <v>24833</v>
+        <v>26097</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>543</v>
+        <v>613</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>544</v>
+        <v>614</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>545</v>
+        <v>615</v>
       </c>
       <c r="H4" s="7">
         <v>17</v>
       </c>
       <c r="I4" s="7">
-        <v>31969</v>
+        <v>28558</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>546</v>
+        <v>616</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>547</v>
+        <v>617</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>548</v>
+        <v>618</v>
       </c>
       <c r="M4" s="7">
         <v>29</v>
       </c>
       <c r="N4" s="7">
-        <v>56801</v>
+        <v>54655</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>549</v>
+        <v>619</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>550</v>
+        <v>620</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>551</v>
+        <v>621</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7507,46 +8425,46 @@
         <v>16</v>
       </c>
       <c r="D5" s="7">
-        <v>35482</v>
+        <v>34682</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>552</v>
+        <v>622</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>553</v>
+        <v>623</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>554</v>
+        <v>624</v>
       </c>
       <c r="H5" s="7">
         <v>29</v>
       </c>
       <c r="I5" s="7">
-        <v>49196</v>
+        <v>43426</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>555</v>
+        <v>625</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>556</v>
+        <v>626</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>557</v>
+        <v>627</v>
       </c>
       <c r="M5" s="7">
         <v>45</v>
       </c>
       <c r="N5" s="7">
-        <v>84678</v>
+        <v>78109</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>558</v>
+        <v>628</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>559</v>
+        <v>629</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>560</v>
+        <v>630</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7558,46 +8476,46 @@
         <v>144</v>
       </c>
       <c r="D6" s="7">
-        <v>317365</v>
+        <v>339207</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>561</v>
+        <v>631</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>562</v>
+        <v>632</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>563</v>
+        <v>633</v>
       </c>
       <c r="H6" s="7">
         <v>161</v>
       </c>
       <c r="I6" s="7">
-        <v>273792</v>
+        <v>241216</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>564</v>
+        <v>634</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>565</v>
+        <v>635</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>566</v>
+        <v>636</v>
       </c>
       <c r="M6" s="7">
         <v>305</v>
       </c>
       <c r="N6" s="7">
-        <v>591157</v>
+        <v>580423</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>567</v>
+        <v>637</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>568</v>
+        <v>638</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>569</v>
+        <v>639</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7609,7 +8527,7 @@
         <v>172</v>
       </c>
       <c r="D7" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -7624,7 +8542,7 @@
         <v>207</v>
       </c>
       <c r="I7" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -7639,7 +8557,7 @@
         <v>379</v>
       </c>
       <c r="N7" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -7662,46 +8580,46 @@
         <v>19</v>
       </c>
       <c r="D8" s="7">
-        <v>32231</v>
+        <v>33853</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>570</v>
+        <v>640</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>571</v>
+        <v>641</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>572</v>
+        <v>642</v>
       </c>
       <c r="H8" s="7">
         <v>43</v>
       </c>
       <c r="I8" s="7">
-        <v>49355</v>
+        <v>45104</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>573</v>
+        <v>643</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>574</v>
+        <v>644</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>575</v>
+        <v>645</v>
       </c>
       <c r="M8" s="7">
         <v>62</v>
       </c>
       <c r="N8" s="7">
-        <v>81586</v>
+        <v>78957</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>576</v>
+        <v>646</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>577</v>
+        <v>647</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>578</v>
+        <v>648</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7713,46 +8631,46 @@
         <v>36</v>
       </c>
       <c r="D9" s="7">
-        <v>58263</v>
+        <v>57586</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>579</v>
+        <v>649</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>580</v>
+        <v>650</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>581</v>
+        <v>651</v>
       </c>
       <c r="H9" s="7">
         <v>54</v>
       </c>
       <c r="I9" s="7">
-        <v>67955</v>
+        <v>117846</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>582</v>
+        <v>652</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>583</v>
+        <v>653</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>584</v>
+        <v>654</v>
       </c>
       <c r="M9" s="7">
         <v>90</v>
       </c>
       <c r="N9" s="7">
-        <v>126219</v>
+        <v>175432</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>585</v>
+        <v>655</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>586</v>
+        <v>648</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>587</v>
+        <v>656</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7764,46 +8682,46 @@
         <v>247</v>
       </c>
       <c r="D10" s="7">
-        <v>337901</v>
+        <v>332108</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>588</v>
+        <v>657</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>589</v>
+        <v>658</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>590</v>
+        <v>659</v>
       </c>
       <c r="H10" s="7">
         <v>363</v>
       </c>
       <c r="I10" s="7">
-        <v>381746</v>
+        <v>348984</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>591</v>
+        <v>660</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>592</v>
+        <v>661</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>593</v>
+        <v>662</v>
       </c>
       <c r="M10" s="7">
         <v>610</v>
       </c>
       <c r="N10" s="7">
-        <v>719647</v>
+        <v>681093</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>594</v>
+        <v>663</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>595</v>
+        <v>664</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>596</v>
+        <v>665</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7815,7 +8733,7 @@
         <v>302</v>
       </c>
       <c r="D11" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -7830,7 +8748,7 @@
         <v>460</v>
       </c>
       <c r="I11" s="7">
-        <v>499056</v>
+        <v>511934</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -7845,7 +8763,7 @@
         <v>762</v>
       </c>
       <c r="N11" s="7">
-        <v>927452</v>
+        <v>935481</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -7868,46 +8786,46 @@
         <v>55</v>
       </c>
       <c r="D12" s="7">
-        <v>60716</v>
+        <v>57672</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>597</v>
+        <v>172</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>598</v>
+        <v>666</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>599</v>
+        <v>667</v>
       </c>
       <c r="H12" s="7">
         <v>71</v>
       </c>
       <c r="I12" s="7">
-        <v>52873</v>
+        <v>48793</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>600</v>
+        <v>668</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>601</v>
+        <v>669</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>602</v>
+        <v>670</v>
       </c>
       <c r="M12" s="7">
         <v>126</v>
       </c>
       <c r="N12" s="7">
-        <v>113589</v>
+        <v>106465</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>603</v>
+        <v>671</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>604</v>
+        <v>672</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>605</v>
+        <v>673</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7919,46 +8837,46 @@
         <v>69</v>
       </c>
       <c r="D13" s="7">
-        <v>72338</v>
+        <v>70305</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>606</v>
+        <v>674</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>607</v>
+        <v>675</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>608</v>
+        <v>676</v>
       </c>
       <c r="H13" s="7">
         <v>126</v>
       </c>
       <c r="I13" s="7">
-        <v>94196</v>
+        <v>86871</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>609</v>
+        <v>677</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>610</v>
+        <v>678</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>611</v>
+        <v>228</v>
       </c>
       <c r="M13" s="7">
         <v>195</v>
       </c>
       <c r="N13" s="7">
-        <v>166534</v>
+        <v>157176</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>612</v>
+        <v>679</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>613</v>
+        <v>680</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>614</v>
+        <v>681</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7970,46 +8888,46 @@
         <v>419</v>
       </c>
       <c r="D14" s="7">
-        <v>422828</v>
+        <v>407013</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>615</v>
+        <v>682</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>616</v>
+        <v>683</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>617</v>
+        <v>684</v>
       </c>
       <c r="H14" s="7">
         <v>648</v>
       </c>
       <c r="I14" s="7">
-        <v>461137</v>
+        <v>454243</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>618</v>
+        <v>685</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>619</v>
+        <v>686</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>620</v>
+        <v>687</v>
       </c>
       <c r="M14" s="7">
         <v>1067</v>
       </c>
       <c r="N14" s="7">
-        <v>883966</v>
+        <v>861256</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>621</v>
+        <v>688</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>622</v>
+        <v>689</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>623</v>
+        <v>690</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8021,7 +8939,7 @@
         <v>543</v>
       </c>
       <c r="D15" s="7">
-        <v>555883</v>
+        <v>534990</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -8036,7 +8954,7 @@
         <v>845</v>
       </c>
       <c r="I15" s="7">
-        <v>608206</v>
+        <v>589907</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -8051,7 +8969,7 @@
         <v>1388</v>
       </c>
       <c r="N15" s="7">
-        <v>1164089</v>
+        <v>1124897</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -8074,46 +8992,46 @@
         <v>57</v>
       </c>
       <c r="D16" s="7">
-        <v>59797</v>
+        <v>57210</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>624</v>
+        <v>691</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>625</v>
+        <v>692</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>626</v>
+        <v>693</v>
       </c>
       <c r="H16" s="7">
         <v>116</v>
       </c>
       <c r="I16" s="7">
-        <v>80516</v>
+        <v>74035</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>627</v>
+        <v>670</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>628</v>
+        <v>694</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>629</v>
+        <v>695</v>
       </c>
       <c r="M16" s="7">
         <v>173</v>
       </c>
       <c r="N16" s="7">
-        <v>140312</v>
+        <v>131245</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>583</v>
+        <v>696</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>630</v>
+        <v>697</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>631</v>
+        <v>698</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8125,46 +9043,46 @@
         <v>101</v>
       </c>
       <c r="D17" s="7">
-        <v>107815</v>
+        <v>102270</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>632</v>
+        <v>699</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>633</v>
+        <v>700</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>634</v>
+        <v>701</v>
       </c>
       <c r="H17" s="7">
         <v>144</v>
       </c>
       <c r="I17" s="7">
-        <v>92271</v>
+        <v>84906</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>635</v>
+        <v>702</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>636</v>
+        <v>703</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>637</v>
+        <v>704</v>
       </c>
       <c r="M17" s="7">
         <v>245</v>
       </c>
       <c r="N17" s="7">
-        <v>200086</v>
+        <v>187176</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>585</v>
+        <v>705</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>638</v>
+        <v>706</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>639</v>
+        <v>707</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8176,46 +9094,46 @@
         <v>507</v>
       </c>
       <c r="D18" s="7">
-        <v>556378</v>
+        <v>728306</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>640</v>
+        <v>708</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>641</v>
+        <v>709</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>642</v>
+        <v>710</v>
       </c>
       <c r="H18" s="7">
         <v>879</v>
       </c>
       <c r="I18" s="7">
-        <v>573546</v>
+        <v>553094</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>640</v>
+        <v>711</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>643</v>
+        <v>712</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>644</v>
+        <v>713</v>
       </c>
       <c r="M18" s="7">
         <v>1386</v>
       </c>
       <c r="N18" s="7">
-        <v>1129924</v>
+        <v>1281400</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>640</v>
+        <v>714</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>645</v>
+        <v>715</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>646</v>
+        <v>716</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8227,7 +9145,7 @@
         <v>665</v>
       </c>
       <c r="D19" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -8242,7 +9160,7 @@
         <v>1139</v>
       </c>
       <c r="I19" s="7">
-        <v>746333</v>
+        <v>712035</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -8257,7 +9175,7 @@
         <v>1804</v>
       </c>
       <c r="N19" s="7">
-        <v>1470323</v>
+        <v>1599822</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -8280,46 +9198,46 @@
         <v>52</v>
       </c>
       <c r="D20" s="7">
-        <v>46803</v>
+        <v>44006</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>647</v>
+        <v>717</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>648</v>
+        <v>718</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>649</v>
+        <v>719</v>
       </c>
       <c r="H20" s="7">
         <v>88</v>
       </c>
       <c r="I20" s="7">
-        <v>55045</v>
+        <v>50299</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>650</v>
+        <v>720</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>651</v>
+        <v>721</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>652</v>
+        <v>722</v>
       </c>
       <c r="M20" s="7">
         <v>140</v>
       </c>
       <c r="N20" s="7">
-        <v>101849</v>
+        <v>94305</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>653</v>
+        <v>723</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>654</v>
+        <v>724</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>655</v>
+        <v>725</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8331,46 +9249,46 @@
         <v>82</v>
       </c>
       <c r="D21" s="7">
-        <v>72847</v>
+        <v>68147</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>656</v>
+        <v>726</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>657</v>
+        <v>727</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>658</v>
+        <v>728</v>
       </c>
       <c r="H21" s="7">
         <v>139</v>
       </c>
       <c r="I21" s="7">
-        <v>85965</v>
+        <v>79034</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>659</v>
+        <v>729</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>660</v>
+        <v>730</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>661</v>
+        <v>731</v>
       </c>
       <c r="M21" s="7">
         <v>221</v>
       </c>
       <c r="N21" s="7">
-        <v>158812</v>
+        <v>147181</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>662</v>
+        <v>732</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>664</v>
+        <v>733</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8382,46 +9300,46 @@
         <v>529</v>
       </c>
       <c r="D22" s="7">
-        <v>480506</v>
+        <v>449082</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>666</v>
+        <v>734</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>667</v>
+        <v>735</v>
       </c>
       <c r="H22" s="7">
         <v>774</v>
       </c>
       <c r="I22" s="7">
-        <v>455391</v>
+        <v>417960</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>668</v>
+        <v>736</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>669</v>
+        <v>737</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>670</v>
+        <v>738</v>
       </c>
       <c r="M22" s="7">
         <v>1303</v>
       </c>
       <c r="N22" s="7">
-        <v>935897</v>
+        <v>867041</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>671</v>
+        <v>739</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>673</v>
+        <v>740</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8433,7 +9351,7 @@
         <v>663</v>
       </c>
       <c r="D23" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -8448,7 +9366,7 @@
         <v>1001</v>
       </c>
       <c r="I23" s="7">
-        <v>596401</v>
+        <v>547293</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -8463,7 +9381,7 @@
         <v>1664</v>
       </c>
       <c r="N23" s="7">
-        <v>1196558</v>
+        <v>1108526</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -8483,49 +9401,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="D24" s="7">
-        <v>50850</v>
+        <v>30924</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>674</v>
+        <v>741</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>675</v>
+        <v>742</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>676</v>
+        <v>743</v>
       </c>
       <c r="H24" s="7">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="I24" s="7">
-        <v>177563</v>
+        <v>238498</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>677</v>
+        <v>744</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>678</v>
+        <v>745</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>679</v>
+        <v>746</v>
       </c>
       <c r="M24" s="7">
-        <v>195</v>
+        <v>117</v>
       </c>
       <c r="N24" s="7">
-        <v>228412</v>
+        <v>269422</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>662</v>
+        <v>747</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>678</v>
+        <v>748</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>680</v>
+        <v>749</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8534,49 +9452,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="D25" s="7">
-        <v>92659</v>
+        <v>46780</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>681</v>
+        <v>750</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>682</v>
+        <v>751</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>609</v>
+        <v>752</v>
       </c>
       <c r="H25" s="7">
-        <v>236</v>
+        <v>114</v>
       </c>
       <c r="I25" s="7">
-        <v>138296</v>
+        <v>59555</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>683</v>
+        <v>753</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>684</v>
+        <v>754</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>685</v>
+        <v>755</v>
       </c>
       <c r="M25" s="7">
-        <v>371</v>
+        <v>186</v>
       </c>
       <c r="N25" s="7">
-        <v>230955</v>
+        <v>106335</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>686</v>
+        <v>756</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>687</v>
+        <v>757</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>688</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8585,49 +9503,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>819</v>
+        <v>449</v>
       </c>
       <c r="D26" s="7">
-        <v>553823</v>
+        <v>290461</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>689</v>
+        <v>758</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>690</v>
+        <v>759</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>691</v>
+        <v>760</v>
       </c>
       <c r="H26" s="7">
-        <v>1346</v>
+        <v>642</v>
       </c>
       <c r="I26" s="7">
-        <v>708247</v>
+        <v>308600</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>692</v>
+        <v>761</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>693</v>
+        <v>762</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>694</v>
+        <v>763</v>
       </c>
       <c r="M26" s="7">
-        <v>2165</v>
+        <v>1091</v>
       </c>
       <c r="N26" s="7">
-        <v>1262070</v>
+        <v>599061</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>695</v>
+        <v>764</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>696</v>
+        <v>17</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>697</v>
+        <v>765</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8636,10 +9554,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>1027</v>
+        <v>570</v>
       </c>
       <c r="D27" s="7">
-        <v>697332</v>
+        <v>368165</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -8651,10 +9569,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>1704</v>
+        <v>824</v>
       </c>
       <c r="I27" s="7">
-        <v>1024106</v>
+        <v>606653</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -8666,10 +9584,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>2731</v>
+        <v>1394</v>
       </c>
       <c r="N27" s="7">
-        <v>1721437</v>
+        <v>974818</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -8683,55 +9601,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>268</v>
+        <v>24</v>
       </c>
       <c r="D28" s="7">
-        <v>275230</v>
+        <v>16652</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>698</v>
+        <v>766</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>699</v>
+        <v>767</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>650</v>
+        <v>768</v>
       </c>
       <c r="H28" s="7">
-        <v>457</v>
+        <v>54</v>
       </c>
       <c r="I28" s="7">
-        <v>447320</v>
+        <v>26946</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>700</v>
+        <v>769</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>701</v>
+        <v>770</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>91</v>
+        <v>771</v>
       </c>
       <c r="M28" s="7">
-        <v>725</v>
+        <v>78</v>
       </c>
       <c r="N28" s="7">
-        <v>722550</v>
+        <v>43599</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>702</v>
+        <v>772</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>703</v>
+        <v>773</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>67</v>
+        <v>672</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8740,49 +9658,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>439</v>
+        <v>63</v>
       </c>
       <c r="D29" s="7">
-        <v>439405</v>
+        <v>39733</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>704</v>
+        <v>774</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>705</v>
+        <v>775</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>706</v>
+        <v>776</v>
       </c>
       <c r="H29" s="7">
-        <v>728</v>
+        <v>122</v>
       </c>
       <c r="I29" s="7">
-        <v>527880</v>
+        <v>64604</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>707</v>
+        <v>777</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>708</v>
+        <v>778</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>639</v>
+        <v>776</v>
       </c>
       <c r="M29" s="7">
-        <v>1167</v>
+        <v>185</v>
       </c>
       <c r="N29" s="7">
-        <v>967284</v>
+        <v>104337</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>709</v>
+        <v>779</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>708</v>
+        <v>780</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>710</v>
+        <v>781</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8791,49 +9709,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>2665</v>
+        <v>370</v>
       </c>
       <c r="D30" s="7">
-        <v>2668801</v>
+        <v>225974</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>588</v>
+        <v>782</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>711</v>
+        <v>783</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>712</v>
+        <v>784</v>
       </c>
       <c r="H30" s="7">
-        <v>4171</v>
+        <v>704</v>
       </c>
       <c r="I30" s="7">
-        <v>2853859</v>
+        <v>333735</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>713</v>
+        <v>785</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>714</v>
+        <v>786</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>715</v>
+        <v>787</v>
       </c>
       <c r="M30" s="7">
-        <v>6836</v>
+        <v>1074</v>
       </c>
       <c r="N30" s="7">
-        <v>5522660</v>
+        <v>559709</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>716</v>
+        <v>788</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>717</v>
+        <v>789</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>718</v>
+        <v>790</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8842,63 +9760,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>457</v>
+      </c>
+      <c r="D31" s="7">
+        <v>282359</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>880</v>
+      </c>
+      <c r="I31" s="7">
+        <v>425286</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>1337</v>
+      </c>
+      <c r="N31" s="7">
+        <v>707644</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>268</v>
+      </c>
+      <c r="D32" s="7">
+        <v>266415</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>792</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="H32" s="7">
+        <v>457</v>
+      </c>
+      <c r="I32" s="7">
+        <v>512233</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>794</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>795</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>796</v>
+      </c>
+      <c r="M32" s="7">
+        <v>725</v>
+      </c>
+      <c r="N32" s="7">
+        <v>778647</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>797</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>798</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>439</v>
+      </c>
+      <c r="D33" s="7">
+        <v>419503</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>800</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="H33" s="7">
+        <v>728</v>
+      </c>
+      <c r="I33" s="7">
+        <v>536242</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>803</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>804</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="M33" s="7">
+        <v>1167</v>
+      </c>
+      <c r="N33" s="7">
+        <v>955746</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>806</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>807</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>2665</v>
+      </c>
+      <c r="D34" s="7">
+        <v>2772151</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>809</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="H34" s="7">
+        <v>4171</v>
+      </c>
+      <c r="I34" s="7">
+        <v>2657832</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>812</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="M34" s="7">
+        <v>6836</v>
+      </c>
+      <c r="N34" s="7">
+        <v>5429983</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3372</v>
       </c>
-      <c r="D31" s="7">
-        <v>3383436</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>3458069</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>5356</v>
       </c>
-      <c r="I31" s="7">
-        <v>3829059</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I35" s="7">
+        <v>3706307</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>8728</v>
       </c>
-      <c r="N31" s="7">
-        <v>7212494</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>205</v>
+      <c r="N35" s="7">
+        <v>7164376</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
